--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_13_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1846332.950563239</v>
+        <v>1815982.577623382</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6036984.253669617</v>
+        <v>6036984.253669616</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6249423.55775332</v>
+        <v>6249423.557753321</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7655779.337787188</v>
+        <v>7655779.337787187</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>167.4375377658156</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4326540309573</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.796868548248002</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
@@ -1463,7 +1463,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.6331371693022</v>
+        <v>126.6331371693018</v>
       </c>
       <c r="H12" t="n">
         <v>91.13414847334133</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.014718123708853</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S12" t="n">
-        <v>136.2618012604453</v>
+        <v>136.2618012604452</v>
       </c>
       <c r="T12" t="n">
         <v>183.5411321587137</v>
       </c>
       <c r="U12" t="n">
-        <v>216.256681464012</v>
+        <v>216.2566814640126</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>145.4839035922484</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>227.9525392365341</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>146.2836916409821</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4326540309573</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I14" t="n">
         <v>112.8634694374322</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>178.210780544678</v>
       </c>
       <c r="W14" t="n">
-        <v>353.8015770701382</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.014718123708853</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S15" t="n">
         <v>136.2618012604453</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>34.44760092182522</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.55987027912872</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>239.3665898648894</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>198.8906022876429</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>316.4797703982946</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>410.4326540309573</v>
       </c>
       <c r="H17" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>112.8634694374322</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.014718123708853</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S18" t="n">
         <v>136.2618012604453</v>
@@ -1979,7 +1979,7 @@
         <v>183.5411321587137</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2566814640122</v>
+        <v>216.256681464012</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>60.19264515634831</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>117.5652606754719</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2813844636727</v>
+        <v>119.1522363071022</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>241.3740951289484</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>145.6323038703763</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -2162,7 +2162,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314552</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.014718123708853</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S21" t="n">
         <v>136.2618012604453</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>52.78813601384248</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.65413626689508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>48.75106902087133</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.4326540309573</v>
@@ -2338,7 +2338,7 @@
         <v>314.0257770630316</v>
       </c>
       <c r="I23" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>150.9408918678261</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>180.4539484018379</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.014718123708853</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S24" t="n">
         <v>136.2618012604453</v>
@@ -2478,28 +2478,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>112.2868170821804</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>9.7421267822627</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>122.3877850853864</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.55987027912872</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>199.7662926185104</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>213.562290323142</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
@@ -2575,7 +2575,7 @@
         <v>314.0257770630316</v>
       </c>
       <c r="I26" t="n">
-        <v>112.8634694374322</v>
+        <v>101.9030130715364</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>150.9408918678261</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U26" t="n">
         <v>252.2156595111942</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.01471812370886</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S27" t="n">
         <v>136.2618012604453</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>133.3060160804351</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.04808020513192843</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>122.3877850853864</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>117.5652606754719</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2813844636727</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>334.1634259857991</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>40.4671988308858</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2806,10 +2806,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>410.4326540309573</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I29" t="n">
         <v>112.8634694374322</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.01471812370886</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S30" t="n">
         <v>136.2618012604453</v>
@@ -2949,31 +2949,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.1318910149143</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>122.3877850853864</v>
       </c>
       <c r="J31" t="n">
-        <v>11.55987027912873</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>135.396237522043</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>410.4326540309573</v>
       </c>
       <c r="H32" t="n">
-        <v>314.0257770630316</v>
+        <v>58.22966280571787</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>135.9638393255085</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T32" t="n">
         <v>215.5040507335656</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.01471812370886</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S33" t="n">
         <v>136.2618012604453</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>107.0276008215951</v>
       </c>
       <c r="F34" t="n">
-        <v>58.68276345606417</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.55987027912873</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>284.2813844636727</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>127.6864963298048</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>150.9408918678261</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>233.6318420366453</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.01471812370886</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S36" t="n">
         <v>136.2618012604453</v>
@@ -3432,19 +3432,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.64153649393913</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>122.3877850853864</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T37" t="n">
         <v>227.9525392365341</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>5.198867200118279</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>127.0823592450257</v>
       </c>
       <c r="G38" t="n">
         <v>410.4326540309573</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I38" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.95789393771159</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.01471812370886</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S39" t="n">
         <v>136.2618012604453</v>
@@ -3638,7 +3638,7 @@
         <v>183.5411321587137</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2566814640124</v>
+        <v>216.256681464012</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3660,31 +3660,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.5530858569906</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I40" t="n">
         <v>122.3877850853864</v>
       </c>
       <c r="J40" t="n">
-        <v>11.55987027912873</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>117.5652606754719</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>47.87982033733763</v>
+        <v>11.43403727581522</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.4326540309573</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>103.1910229613997</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -3808,7 +3808,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>75.33051655969825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>137.4502506396908</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.01471812370886</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S42" t="n">
-        <v>136.2618012604453</v>
+        <v>136.2618012604452</v>
       </c>
       <c r="T42" t="n">
         <v>183.5411321587137</v>
       </c>
       <c r="U42" t="n">
-        <v>216.256681464012</v>
+        <v>216.2566814640128</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>75.18111804602181</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U43" t="n">
         <v>284.2813844636727</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>217.0616788327734</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.8271354025131</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -3985,19 +3985,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.4326540309573</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U44" t="n">
         <v>252.2156595111942</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>217.5633027357795</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.01471812370886</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S45" t="n">
-        <v>136.2618012604453</v>
+        <v>136.2618012604465</v>
       </c>
       <c r="T45" t="n">
         <v>183.5411321587137</v>
@@ -4115,7 +4115,7 @@
         <v>216.256681464012</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261501</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5837298985551</v>
       </c>
       <c r="D46" t="n">
-        <v>149.8008765147823</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>122.3877850853864</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>117.5652606754719</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T46" t="n">
         <v>227.9525392365341</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1162.947905445869</v>
+        <v>973.1245032204904</v>
       </c>
       <c r="C11" t="n">
-        <v>781.0141467786761</v>
+        <v>591.1907445532977</v>
       </c>
       <c r="D11" t="n">
-        <v>781.0141467786761</v>
+        <v>218.3667797805213</v>
       </c>
       <c r="E11" t="n">
-        <v>781.0141467786761</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="F11" t="n">
-        <v>781.0141467786761</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="G11" t="n">
-        <v>366.4357083635677</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="H11" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="I11" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="J11" t="n">
-        <v>49.23795375444485</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K11" t="n">
-        <v>62.39691953480571</v>
+        <v>261.2978225518128</v>
       </c>
       <c r="L11" t="n">
-        <v>646.2344448166986</v>
+        <v>307.6053647072758</v>
       </c>
       <c r="M11" t="n">
-        <v>1255.554122527953</v>
+        <v>916.9250424185309</v>
       </c>
       <c r="N11" t="n">
-        <v>1864.873800239208</v>
+        <v>1456.71578139955</v>
       </c>
       <c r="O11" t="n">
-        <v>2421.801032136742</v>
+        <v>2013.643013297083</v>
       </c>
       <c r="P11" t="n">
-        <v>2450.81314231664</v>
+        <v>2456.810060893679</v>
       </c>
       <c r="Q11" t="n">
-        <v>2461.897687722242</v>
+        <v>2456.810060893679</v>
       </c>
       <c r="R11" t="n">
-        <v>2461.897687722242</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="S11" t="n">
-        <v>2309.432140381004</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="T11" t="n">
-        <v>2309.432140381004</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="U11" t="n">
-        <v>2301.556515584793</v>
+        <v>2054.668847945455</v>
       </c>
       <c r="V11" t="n">
-        <v>2301.556515584793</v>
+        <v>1717.689573841396</v>
       </c>
       <c r="W11" t="n">
-        <v>1939.021585442395</v>
+        <v>1355.154643698997</v>
       </c>
       <c r="X11" t="n">
-        <v>1556.991444963888</v>
+        <v>973.1245032204904</v>
       </c>
       <c r="Y11" t="n">
-        <v>1556.991444963888</v>
+        <v>973.1245032204904</v>
       </c>
     </row>
     <row r="12">
@@ -5102,55 +5102,55 @@
         <v>730.0446320405701</v>
       </c>
       <c r="D12" t="n">
-        <v>591.2059950307822</v>
+        <v>591.2059950307821</v>
       </c>
       <c r="E12" t="n">
         <v>444.1779850876534</v>
       </c>
       <c r="F12" t="n">
-        <v>309.4841870375278</v>
+        <v>309.4841870375277</v>
       </c>
       <c r="G12" t="n">
-        <v>181.5719272705559</v>
+        <v>181.5719272705562</v>
       </c>
       <c r="H12" t="n">
-        <v>89.51723184293837</v>
+        <v>89.5172318429384</v>
       </c>
       <c r="I12" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="J12" t="n">
-        <v>49.23795375444485</v>
+        <v>185.0742757874069</v>
       </c>
       <c r="K12" t="n">
-        <v>407.9104827956788</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L12" t="n">
-        <v>947.4334373906294</v>
+        <v>973.8164685959622</v>
       </c>
       <c r="M12" t="n">
-        <v>1225.039733995557</v>
+        <v>1062.188406806686</v>
       </c>
       <c r="N12" t="n">
-        <v>1834.359411706811</v>
+        <v>1671.508084517941</v>
       </c>
       <c r="O12" t="n">
-        <v>2416.899006627292</v>
+        <v>1747.146874529271</v>
       </c>
       <c r="P12" t="n">
-        <v>2461.897687722242</v>
+        <v>2202.00713886382</v>
       </c>
       <c r="Q12" t="n">
-        <v>2461.897687722242</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R12" t="n">
-        <v>2452.791911839708</v>
+        <v>2452.791911839709</v>
       </c>
       <c r="S12" t="n">
-        <v>2315.153728748349</v>
+        <v>2315.15372874835</v>
       </c>
       <c r="T12" t="n">
-        <v>2129.758645759749</v>
+        <v>2129.75864575975</v>
       </c>
       <c r="U12" t="n">
         <v>1911.317553371859</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.4799134165286</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="C13" t="n">
-        <v>349.4799134165286</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="D13" t="n">
-        <v>349.4799134165286</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="E13" t="n">
-        <v>349.4799134165286</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="F13" t="n">
-        <v>349.4799134165286</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="G13" t="n">
-        <v>202.5264754445606</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="H13" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="I13" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="J13" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="K13" t="n">
         <v>160.7641990212247</v>
       </c>
       <c r="L13" t="n">
-        <v>361.084684424381</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M13" t="n">
-        <v>584.2119963308714</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N13" t="n">
-        <v>805.2682969435489</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O13" t="n">
-        <v>998.5310162369051</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P13" t="n">
         <v>1142.616483789339</v>
@@ -5223,28 +5223,28 @@
         <v>1161.007230515193</v>
       </c>
       <c r="R13" t="n">
-        <v>1042.254441954111</v>
+        <v>1042.25444195411</v>
       </c>
       <c r="S13" t="n">
-        <v>840.4703079960193</v>
+        <v>840.4703079960191</v>
       </c>
       <c r="T13" t="n">
-        <v>610.215217858106</v>
+        <v>610.2152178581058</v>
       </c>
       <c r="U13" t="n">
-        <v>610.215217858106</v>
+        <v>462.4539131702451</v>
       </c>
       <c r="V13" t="n">
-        <v>349.4799134165286</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="W13" t="n">
-        <v>349.4799134165286</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="X13" t="n">
-        <v>349.4799134165286</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="Y13" t="n">
-        <v>349.4799134165286</v>
+        <v>201.7186087286677</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>991.9710873416377</v>
+        <v>894.5904035356521</v>
       </c>
       <c r="C14" t="n">
-        <v>991.9710873416377</v>
+        <v>894.5904035356521</v>
       </c>
       <c r="D14" t="n">
-        <v>991.9710873416377</v>
+        <v>894.5904035356521</v>
       </c>
       <c r="E14" t="n">
-        <v>991.9710873416377</v>
+        <v>894.5904035356521</v>
       </c>
       <c r="F14" t="n">
-        <v>577.819896651808</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="G14" t="n">
-        <v>163.2414582366996</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="H14" t="n">
         <v>163.2414582366996</v>
@@ -5278,52 +5278,52 @@
         <v>49.23795375444485</v>
       </c>
       <c r="J14" t="n">
-        <v>248.1388567714521</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K14" t="n">
-        <v>261.2978225518129</v>
+        <v>678.4729685309019</v>
       </c>
       <c r="L14" t="n">
-        <v>845.1353478337057</v>
+        <v>1262.310493812794</v>
       </c>
       <c r="M14" t="n">
-        <v>1454.455025544961</v>
+        <v>1339.567974892222</v>
       </c>
       <c r="N14" t="n">
-        <v>2063.774703256216</v>
+        <v>1620.062422769181</v>
       </c>
       <c r="O14" t="n">
-        <v>2432.885577542344</v>
+        <v>2176.989654666714</v>
       </c>
       <c r="P14" t="n">
-        <v>2461.897687722242</v>
+        <v>2206.001764846611</v>
       </c>
       <c r="Q14" t="n">
-        <v>2461.897687722242</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R14" t="n">
-        <v>2461.897687722242</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="S14" t="n">
-        <v>2461.897687722242</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="T14" t="n">
-        <v>2461.897687722242</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="U14" t="n">
-        <v>2461.897687722242</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="V14" t="n">
-        <v>2124.918413618183</v>
+        <v>2064.20593895634</v>
       </c>
       <c r="W14" t="n">
-        <v>1767.543083244306</v>
+        <v>2064.20593895634</v>
       </c>
       <c r="X14" t="n">
-        <v>1385.5129427658</v>
+        <v>1682.175798477833</v>
       </c>
       <c r="Y14" t="n">
-        <v>991.9710873416377</v>
+        <v>1288.633943053671</v>
       </c>
     </row>
     <row r="15">
@@ -5333,61 +5333,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>891.7483047996151</v>
+        <v>891.7483047996155</v>
       </c>
       <c r="C15" t="n">
-        <v>730.0446320405699</v>
+        <v>730.0446320405704</v>
       </c>
       <c r="D15" t="n">
-        <v>591.2059950307819</v>
+        <v>591.2059950307823</v>
       </c>
       <c r="E15" t="n">
-        <v>444.177985087653</v>
+        <v>444.1779850876535</v>
       </c>
       <c r="F15" t="n">
-        <v>309.4841870375274</v>
+        <v>309.4841870375278</v>
       </c>
       <c r="G15" t="n">
-        <v>181.5719272705559</v>
+        <v>181.571927270556</v>
       </c>
       <c r="H15" t="n">
-        <v>89.51723184293837</v>
+        <v>89.5172318429384</v>
       </c>
       <c r="I15" t="n">
         <v>49.23795375444485</v>
       </c>
       <c r="J15" t="n">
-        <v>49.23795375444485</v>
+        <v>185.0742757874069</v>
       </c>
       <c r="K15" t="n">
-        <v>143.6070428553035</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L15" t="n">
-        <v>205.8584730447021</v>
+        <v>959.7705023563883</v>
       </c>
       <c r="M15" t="n">
-        <v>815.1781507559571</v>
+        <v>1569.090180067643</v>
       </c>
       <c r="N15" t="n">
-        <v>1424.497828467212</v>
+        <v>1671.50808451794</v>
       </c>
       <c r="O15" t="n">
-        <v>2007.037423387693</v>
+        <v>1747.14687452927</v>
       </c>
       <c r="P15" t="n">
-        <v>2461.897687722242</v>
+        <v>2202.007138863819</v>
       </c>
       <c r="Q15" t="n">
-        <v>2461.897687722242</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R15" t="n">
-        <v>2452.791911839708</v>
+        <v>2452.791911839709</v>
       </c>
       <c r="S15" t="n">
-        <v>2315.153728748349</v>
+        <v>2315.15372874835</v>
       </c>
       <c r="T15" t="n">
-        <v>2129.758645759749</v>
+        <v>2129.75864575975</v>
       </c>
       <c r="U15" t="n">
         <v>1911.317553371859</v>
@@ -5399,7 +5399,7 @@
         <v>1441.606062053503</v>
       </c>
       <c r="X15" t="n">
-        <v>1243.689073931297</v>
+        <v>1243.689073931298</v>
       </c>
       <c r="Y15" t="n">
         <v>1051.167747580876</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71014688672156</v>
+        <v>371.3345782669875</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71014688672156</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71014688672156</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71014688672156</v>
+        <v>201.7186087286677</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71014688672156</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="G16" t="n">
-        <v>60.91459040002942</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="H16" t="n">
-        <v>60.91459040002942</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="I16" t="n">
-        <v>60.91459040002942</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J16" t="n">
         <v>49.23795375444485</v>
@@ -5442,16 +5442,16 @@
         <v>160.7641990212247</v>
       </c>
       <c r="L16" t="n">
-        <v>361.084684424381</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M16" t="n">
-        <v>584.2119963308714</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N16" t="n">
-        <v>805.2682969435489</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O16" t="n">
-        <v>998.5310162369051</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P16" t="n">
         <v>1142.616483789339</v>
@@ -5469,19 +5469,19 @@
         <v>1161.007230515193</v>
       </c>
       <c r="U16" t="n">
-        <v>873.8543169155241</v>
+        <v>873.8543169155239</v>
       </c>
       <c r="V16" t="n">
-        <v>613.1190124739467</v>
+        <v>613.1190124739464</v>
       </c>
       <c r="W16" t="n">
-        <v>326.9626109913458</v>
+        <v>371.3345782669875</v>
       </c>
       <c r="X16" t="n">
-        <v>95.71014688672156</v>
+        <v>371.3345782669875</v>
       </c>
       <c r="Y16" t="n">
-        <v>95.71014688672156</v>
+        <v>371.3345782669875</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1649.7753747009</v>
+        <v>1292.282152301554</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.841616033707</v>
+        <v>1292.282152301554</v>
       </c>
       <c r="D17" t="n">
-        <v>895.017651260931</v>
+        <v>972.6056165457012</v>
       </c>
       <c r="E17" t="n">
-        <v>895.017651260931</v>
+        <v>577.8198966518081</v>
       </c>
       <c r="F17" t="n">
-        <v>895.017651260931</v>
+        <v>577.8198966518081</v>
       </c>
       <c r="G17" t="n">
-        <v>480.4392128458225</v>
+        <v>163.2414582366996</v>
       </c>
       <c r="H17" t="n">
         <v>163.2414582366996</v>
@@ -5515,28 +5515,28 @@
         <v>49.23795375444485</v>
       </c>
       <c r="J17" t="n">
-        <v>248.1388567714521</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K17" t="n">
-        <v>678.472968530902</v>
+        <v>678.4729685309019</v>
       </c>
       <c r="L17" t="n">
-        <v>1262.310493812795</v>
+        <v>1262.310493812794</v>
       </c>
       <c r="M17" t="n">
-        <v>1871.63017152405</v>
+        <v>1495.744951514514</v>
       </c>
       <c r="N17" t="n">
-        <v>2366.048178929964</v>
+        <v>2105.064629225769</v>
       </c>
       <c r="O17" t="n">
-        <v>2432.885577542344</v>
+        <v>2171.902027838149</v>
       </c>
       <c r="P17" t="n">
-        <v>2461.897687722242</v>
+        <v>2200.914138018047</v>
       </c>
       <c r="Q17" t="n">
-        <v>2461.897687722242</v>
+        <v>2456.810060893678</v>
       </c>
       <c r="R17" t="n">
         <v>2461.897687722242</v>
@@ -5545,22 +5545,22 @@
         <v>2461.897687722242</v>
       </c>
       <c r="T17" t="n">
-        <v>2244.216828395408</v>
+        <v>2461.897687722242</v>
       </c>
       <c r="U17" t="n">
-        <v>2244.216828395408</v>
+        <v>2461.897687722242</v>
       </c>
       <c r="V17" t="n">
-        <v>2244.216828395408</v>
+        <v>2461.897687722242</v>
       </c>
       <c r="W17" t="n">
-        <v>2244.216828395408</v>
+        <v>2461.897687722242</v>
       </c>
       <c r="X17" t="n">
-        <v>2244.216828395408</v>
+        <v>2079.867547243735</v>
       </c>
       <c r="Y17" t="n">
-        <v>1850.674972971246</v>
+        <v>1686.325691819573</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>891.7483047996151</v>
       </c>
       <c r="C18" t="n">
-        <v>730.0446320405698</v>
+        <v>730.0446320405699</v>
       </c>
       <c r="D18" t="n">
         <v>591.2059950307819</v>
@@ -5597,13 +5597,13 @@
         <v>185.0742757874069</v>
       </c>
       <c r="K18" t="n">
-        <v>420.2475477614372</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L18" t="n">
-        <v>959.7705023563877</v>
+        <v>1083.269759423591</v>
       </c>
       <c r="M18" t="n">
-        <v>1569.090180067643</v>
+        <v>1171.641697634315</v>
       </c>
       <c r="N18" t="n">
         <v>1671.50808451794</v>
@@ -5627,13 +5627,13 @@
         <v>2129.758645759749</v>
       </c>
       <c r="U18" t="n">
-        <v>1911.317553371858</v>
+        <v>1911.317553371859</v>
       </c>
       <c r="V18" t="n">
-        <v>1682.921930820192</v>
+        <v>1682.921930820193</v>
       </c>
       <c r="W18" t="n">
-        <v>1441.606062053502</v>
+        <v>1441.606062053503</v>
       </c>
       <c r="X18" t="n">
         <v>1243.689073931297</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.0386054275239</v>
+        <v>523.2425706783699</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0386054275239</v>
+        <v>523.2425706783699</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0386054275239</v>
+        <v>523.2425706783699</v>
       </c>
       <c r="E19" t="n">
-        <v>49.23795375444485</v>
+        <v>523.2425706783699</v>
       </c>
       <c r="F19" t="n">
-        <v>49.23795375444485</v>
+        <v>370.761915704147</v>
       </c>
       <c r="G19" t="n">
-        <v>49.23795375444485</v>
+        <v>202.5264754445606</v>
       </c>
       <c r="H19" t="n">
         <v>49.23795375444485</v>
@@ -5679,16 +5679,16 @@
         <v>160.7641990212247</v>
       </c>
       <c r="L19" t="n">
-        <v>361.084684424381</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M19" t="n">
-        <v>584.2119963308714</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N19" t="n">
-        <v>805.2682969435489</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O19" t="n">
-        <v>998.5310162369051</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P19" t="n">
         <v>1142.616483789339</v>
@@ -5697,28 +5697,28 @@
         <v>1161.007230515193</v>
       </c>
       <c r="R19" t="n">
-        <v>1042.254441954111</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="S19" t="n">
-        <v>1042.254441954111</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="T19" t="n">
-        <v>811.9993518161974</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="U19" t="n">
-        <v>524.846438216528</v>
+        <v>1040.651436265595</v>
       </c>
       <c r="V19" t="n">
-        <v>524.846438216528</v>
+        <v>1040.651436265595</v>
       </c>
       <c r="W19" t="n">
-        <v>524.846438216528</v>
+        <v>754.4950347829941</v>
       </c>
       <c r="X19" t="n">
-        <v>293.5939741119038</v>
+        <v>523.2425706783699</v>
       </c>
       <c r="Y19" t="n">
-        <v>293.5939741119038</v>
+        <v>523.2425706783699</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>674.9839297236056</v>
+        <v>1533.860144478335</v>
       </c>
       <c r="C20" t="n">
-        <v>293.0501710564129</v>
+        <v>1533.860144478335</v>
       </c>
       <c r="D20" t="n">
-        <v>293.0501710564129</v>
+        <v>1533.860144478335</v>
       </c>
       <c r="E20" t="n">
-        <v>293.0501710564129</v>
+        <v>1139.074424584442</v>
       </c>
       <c r="F20" t="n">
-        <v>293.0501710564129</v>
+        <v>724.9232338946124</v>
       </c>
       <c r="G20" t="n">
-        <v>49.23795375444485</v>
+        <v>310.3447954795039</v>
       </c>
       <c r="H20" t="n">
-        <v>49.23795375444485</v>
+        <v>163.2414582366996</v>
       </c>
       <c r="I20" t="n">
         <v>49.23795375444485</v>
       </c>
       <c r="J20" t="n">
-        <v>248.1388567714521</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K20" t="n">
-        <v>261.2978225518129</v>
+        <v>678.4729685309019</v>
       </c>
       <c r="L20" t="n">
-        <v>396.3354405181062</v>
+        <v>775.2262494374313</v>
       </c>
       <c r="M20" t="n">
-        <v>1005.655118229361</v>
+        <v>852.4837305168587</v>
       </c>
       <c r="N20" t="n">
-        <v>1614.974795940616</v>
+        <v>1461.803408228114</v>
       </c>
       <c r="O20" t="n">
-        <v>2171.902027838149</v>
+        <v>2018.730640125647</v>
       </c>
       <c r="P20" t="n">
-        <v>2200.914138018047</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="Q20" t="n">
-        <v>2456.810060893678</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R20" t="n">
-        <v>2461.897687722242</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="S20" t="n">
-        <v>2461.897687722242</v>
+        <v>2309.432140381004</v>
       </c>
       <c r="T20" t="n">
-        <v>2461.897687722242</v>
+        <v>2309.432140381004</v>
       </c>
       <c r="U20" t="n">
-        <v>2207.134395286692</v>
+        <v>2309.432140381004</v>
       </c>
       <c r="V20" t="n">
-        <v>2207.134395286692</v>
+        <v>2309.432140381004</v>
       </c>
       <c r="W20" t="n">
-        <v>1844.599465144293</v>
+        <v>2309.432140381004</v>
       </c>
       <c r="X20" t="n">
-        <v>1462.569324665787</v>
+        <v>1927.401999902497</v>
       </c>
       <c r="Y20" t="n">
-        <v>1069.027469241625</v>
+        <v>1533.860144478335</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>891.7483047996154</v>
+        <v>891.7483047996155</v>
       </c>
       <c r="C21" t="n">
-        <v>730.0446320405698</v>
+        <v>730.0446320405704</v>
       </c>
       <c r="D21" t="n">
-        <v>591.2059950307819</v>
+        <v>591.2059950307823</v>
       </c>
       <c r="E21" t="n">
-        <v>444.177985087653</v>
+        <v>444.1779850876535</v>
       </c>
       <c r="F21" t="n">
-        <v>309.4841870375274</v>
+        <v>309.4841870375278</v>
       </c>
       <c r="G21" t="n">
-        <v>181.5719272705559</v>
+        <v>181.571927270556</v>
       </c>
       <c r="H21" t="n">
-        <v>89.51723184293837</v>
+        <v>89.5172318429384</v>
       </c>
       <c r="I21" t="n">
         <v>49.23795375444485</v>
       </c>
       <c r="J21" t="n">
-        <v>49.23795375444485</v>
+        <v>185.0742757874069</v>
       </c>
       <c r="K21" t="n">
-        <v>67.54372276049013</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L21" t="n">
-        <v>129.7951529498887</v>
+        <v>605.9982350180394</v>
       </c>
       <c r="M21" t="n">
-        <v>555.2876018975338</v>
+        <v>1062.189375158492</v>
       </c>
       <c r="N21" t="n">
         <v>1164.607279608789</v>
@@ -5852,16 +5852,16 @@
         <v>2202.007138863819</v>
       </c>
       <c r="Q21" t="n">
-        <v>2461.897687722242</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R21" t="n">
-        <v>2452.791911839708</v>
+        <v>2452.791911839709</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.153728748349</v>
+        <v>2315.15372874835</v>
       </c>
       <c r="T21" t="n">
-        <v>2129.758645759749</v>
+        <v>2129.75864575975</v>
       </c>
       <c r="U21" t="n">
         <v>1911.317553371859</v>
@@ -5873,7 +5873,7 @@
         <v>1441.606062053503</v>
       </c>
       <c r="X21" t="n">
-        <v>1243.689073931297</v>
+        <v>1243.689073931298</v>
       </c>
       <c r="Y21" t="n">
         <v>1051.167747580876</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1948.449313249505</v>
+        <v>699.4996762726557</v>
       </c>
       <c r="C22" t="n">
-        <v>1778.833343711186</v>
+        <v>646.1783267637239</v>
       </c>
       <c r="D22" t="n">
-        <v>1625.761450538949</v>
+        <v>493.1064335914866</v>
       </c>
       <c r="E22" t="n">
-        <v>1473.752436300267</v>
+        <v>341.0974193528054</v>
       </c>
       <c r="F22" t="n">
-        <v>1473.752436300267</v>
+        <v>341.0974193528054</v>
       </c>
       <c r="G22" t="n">
-        <v>1473.752436300267</v>
+        <v>172.861979093219</v>
       </c>
       <c r="H22" t="n">
-        <v>1473.752436300267</v>
+        <v>172.861979093219</v>
       </c>
       <c r="I22" t="n">
-        <v>1350.128410961493</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J22" t="n">
-        <v>1350.128410961493</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K22" t="n">
-        <v>1461.654656228273</v>
+        <v>160.7641990212247</v>
       </c>
       <c r="L22" t="n">
-        <v>1661.975141631429</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M22" t="n">
-        <v>1885.10245353792</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N22" t="n">
-        <v>2106.158754150597</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O22" t="n">
-        <v>2299.421473443954</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P22" t="n">
-        <v>2443.506940996388</v>
+        <v>1142.616483789339</v>
       </c>
       <c r="Q22" t="n">
-        <v>2461.897687722242</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="R22" t="n">
-        <v>2363.25714603851</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="S22" t="n">
-        <v>2363.25714603851</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="T22" t="n">
-        <v>2363.25714603851</v>
+        <v>930.7521403772799</v>
       </c>
       <c r="U22" t="n">
-        <v>2363.25714603851</v>
+        <v>930.7521403772799</v>
       </c>
       <c r="V22" t="n">
-        <v>2363.25714603851</v>
+        <v>930.7521403772799</v>
       </c>
       <c r="W22" t="n">
-        <v>2363.25714603851</v>
+        <v>930.7521403772799</v>
       </c>
       <c r="X22" t="n">
-        <v>2132.004681933885</v>
+        <v>699.4996762726557</v>
       </c>
       <c r="Y22" t="n">
-        <v>2132.004681933885</v>
+        <v>699.4996762726557</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2486.516241057951</v>
+        <v>1612.81933005346</v>
       </c>
       <c r="C23" t="n">
-        <v>2104.582482390759</v>
+        <v>1230.885571386267</v>
       </c>
       <c r="D23" t="n">
-        <v>1731.758517617983</v>
+        <v>858.061606613491</v>
       </c>
       <c r="E23" t="n">
-        <v>1336.972797724089</v>
+        <v>808.8181025520048</v>
       </c>
       <c r="F23" t="n">
-        <v>922.8216070342596</v>
+        <v>808.8181025520048</v>
       </c>
       <c r="G23" t="n">
-        <v>508.2431686191512</v>
+        <v>394.2396641368964</v>
       </c>
       <c r="H23" t="n">
-        <v>191.0454140100283</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="I23" t="n">
         <v>77.04190952777356</v>
@@ -5992,7 +5992,7 @@
         <v>275.9428125447807</v>
       </c>
       <c r="K23" t="n">
-        <v>706.2769243042306</v>
+        <v>706.2769243042303</v>
       </c>
       <c r="L23" t="n">
         <v>1290.114449586123</v>
@@ -6001,13 +6001,13 @@
         <v>1945.895848270826</v>
       </c>
       <c r="N23" t="n">
-        <v>2591.017647190354</v>
+        <v>2591.017647190353</v>
       </c>
       <c r="O23" t="n">
         <v>3147.944879087887</v>
       </c>
       <c r="P23" t="n">
-        <v>3591.111926684483</v>
+        <v>3591.111926684482</v>
       </c>
       <c r="Q23" t="n">
         <v>3847.007849560114</v>
@@ -6019,22 +6019,22 @@
         <v>3699.629929047439</v>
       </c>
       <c r="T23" t="n">
-        <v>3699.629929047439</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="U23" t="n">
-        <v>3444.86663661189</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="V23" t="n">
-        <v>3444.86663661189</v>
+        <v>3144.969795616547</v>
       </c>
       <c r="W23" t="n">
-        <v>3444.86663661189</v>
+        <v>2782.434865474148</v>
       </c>
       <c r="X23" t="n">
-        <v>3062.836496133383</v>
+        <v>2400.404724995641</v>
       </c>
       <c r="Y23" t="n">
-        <v>2880.559780575971</v>
+        <v>2006.862869571479</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>77.04190952777356</v>
       </c>
       <c r="J24" t="n">
-        <v>77.04190952777356</v>
+        <v>212.8782315607356</v>
       </c>
       <c r="K24" t="n">
-        <v>435.7144385690075</v>
+        <v>571.5507606019696</v>
       </c>
       <c r="L24" t="n">
-        <v>975.2373931639581</v>
+        <v>1111.07371519692</v>
       </c>
       <c r="M24" t="n">
-        <v>1662.971748420932</v>
+        <v>1199.445653407644</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.389652871229</v>
+        <v>1301.863557857941</v>
       </c>
       <c r="O24" t="n">
-        <v>1841.028442882559</v>
+        <v>1774.950830302598</v>
       </c>
       <c r="P24" t="n">
-        <v>2295.888707217108</v>
+        <v>2229.811094637148</v>
       </c>
       <c r="Q24" t="n">
         <v>2489.701643495571</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3142.119782140263</v>
+        <v>239.3630966052921</v>
       </c>
       <c r="C25" t="n">
-        <v>3028.698754784525</v>
+        <v>239.3630966052921</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.626861612288</v>
+        <v>239.3630966052921</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.626861612288</v>
+        <v>239.3630966052921</v>
       </c>
       <c r="F25" t="n">
-        <v>2875.626861612288</v>
+        <v>86.88244163106921</v>
       </c>
       <c r="G25" t="n">
-        <v>2875.626861612288</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="H25" t="n">
-        <v>2875.626861612288</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="I25" t="n">
-        <v>2752.002836273514</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="J25" t="n">
-        <v>2740.326199627929</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="K25" t="n">
-        <v>2851.852444894709</v>
+        <v>188.5681547945534</v>
       </c>
       <c r="L25" t="n">
-        <v>3052.172930297866</v>
+        <v>388.8886401977095</v>
       </c>
       <c r="M25" t="n">
-        <v>3275.300242204356</v>
+        <v>612.0159521042001</v>
       </c>
       <c r="N25" t="n">
-        <v>3496.356542817033</v>
+        <v>833.0722527168774</v>
       </c>
       <c r="O25" t="n">
-        <v>3689.61926211039</v>
+        <v>1026.334972010234</v>
       </c>
       <c r="P25" t="n">
-        <v>3833.704729662823</v>
+        <v>1170.420439562667</v>
       </c>
       <c r="Q25" t="n">
-        <v>3852.095476388678</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="R25" t="n">
-        <v>3852.095476388678</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="S25" t="n">
-        <v>3650.311342430587</v>
+        <v>987.0270523304305</v>
       </c>
       <c r="T25" t="n">
-        <v>3650.311342430587</v>
+        <v>756.7719621925172</v>
       </c>
       <c r="U25" t="n">
-        <v>3650.311342430587</v>
+        <v>756.7719621925172</v>
       </c>
       <c r="V25" t="n">
-        <v>3650.311342430587</v>
+        <v>756.7719621925172</v>
       </c>
       <c r="W25" t="n">
-        <v>3364.154940947986</v>
+        <v>470.6155607099163</v>
       </c>
       <c r="X25" t="n">
-        <v>3364.154940947986</v>
+        <v>239.3630966052921</v>
       </c>
       <c r="Y25" t="n">
-        <v>3142.119782140263</v>
+        <v>239.3630966052921</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2320.30196756565</v>
+        <v>2102.621108238816</v>
       </c>
       <c r="C26" t="n">
-        <v>2104.582482390759</v>
+        <v>1720.687349571623</v>
       </c>
       <c r="D26" t="n">
-        <v>1731.758517617983</v>
+        <v>1720.687349571623</v>
       </c>
       <c r="E26" t="n">
-        <v>1336.972797724089</v>
+        <v>1325.90162967773</v>
       </c>
       <c r="F26" t="n">
-        <v>922.8216070342596</v>
+        <v>911.7504389879002</v>
       </c>
       <c r="G26" t="n">
-        <v>508.2431686191512</v>
+        <v>497.1720005727918</v>
       </c>
       <c r="H26" t="n">
-        <v>191.0454140100283</v>
+        <v>179.9742459636689</v>
       </c>
       <c r="I26" t="n">
         <v>77.04190952777356</v>
@@ -6229,7 +6229,7 @@
         <v>275.9428125447807</v>
       </c>
       <c r="K26" t="n">
-        <v>706.2769243042306</v>
+        <v>706.2769243042303</v>
       </c>
       <c r="L26" t="n">
         <v>1290.114449586123</v>
@@ -6238,13 +6238,13 @@
         <v>1945.895848270826</v>
       </c>
       <c r="N26" t="n">
-        <v>2591.017647190354</v>
+        <v>2591.017647190353</v>
       </c>
       <c r="O26" t="n">
         <v>3147.944879087887</v>
       </c>
       <c r="P26" t="n">
-        <v>3591.111926684483</v>
+        <v>3591.111926684482</v>
       </c>
       <c r="Q26" t="n">
         <v>3847.007849560114</v>
@@ -6256,22 +6256,22 @@
         <v>3699.629929047439</v>
       </c>
       <c r="T26" t="n">
-        <v>3699.629929047439</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="U26" t="n">
-        <v>3444.86663661189</v>
+        <v>3227.185777285056</v>
       </c>
       <c r="V26" t="n">
-        <v>3107.887362507831</v>
+        <v>2890.206503180997</v>
       </c>
       <c r="W26" t="n">
-        <v>3107.887362507831</v>
+        <v>2890.206503180997</v>
       </c>
       <c r="X26" t="n">
-        <v>3107.887362507831</v>
+        <v>2890.206503180997</v>
       </c>
       <c r="Y26" t="n">
-        <v>2714.345507083669</v>
+        <v>2496.664647756835</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2281.946093466051</v>
+        <v>919.5522605729437</v>
       </c>
       <c r="C27" t="n">
-        <v>2120.242420707006</v>
+        <v>757.8485878138985</v>
       </c>
       <c r="D27" t="n">
-        <v>1981.403783697218</v>
+        <v>619.0099508041105</v>
       </c>
       <c r="E27" t="n">
-        <v>1834.375773754089</v>
+        <v>471.9819408609818</v>
       </c>
       <c r="F27" t="n">
-        <v>1699.681975703963</v>
+        <v>337.2881428108561</v>
       </c>
       <c r="G27" t="n">
-        <v>1571.769715936992</v>
+        <v>209.3758830438846</v>
       </c>
       <c r="H27" t="n">
-        <v>1479.715020509374</v>
+        <v>117.3211876162671</v>
       </c>
       <c r="I27" t="n">
-        <v>1439.435742420881</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="J27" t="n">
-        <v>1575.272064453843</v>
+        <v>212.8782315607356</v>
       </c>
       <c r="K27" t="n">
-        <v>1784.869155200024</v>
+        <v>571.5507606019696</v>
       </c>
       <c r="L27" t="n">
-        <v>2324.392109794974</v>
+        <v>891.6085618500947</v>
       </c>
       <c r="M27" t="n">
-        <v>3012.126465051948</v>
+        <v>979.9805000608181</v>
       </c>
       <c r="N27" t="n">
-        <v>3731.458005282398</v>
+        <v>1699.312040291268</v>
       </c>
       <c r="O27" t="n">
-        <v>3807.096795293728</v>
+        <v>1774.950830302598</v>
       </c>
       <c r="P27" t="n">
-        <v>3852.095476388678</v>
+        <v>2229.811094637148</v>
       </c>
       <c r="Q27" t="n">
-        <v>3852.095476388678</v>
+        <v>2489.701643495571</v>
       </c>
       <c r="R27" t="n">
-        <v>3842.989700506144</v>
+        <v>2480.595867613037</v>
       </c>
       <c r="S27" t="n">
-        <v>3705.351517414785</v>
+        <v>2342.957684521678</v>
       </c>
       <c r="T27" t="n">
-        <v>3519.956434426185</v>
+        <v>2157.562601533078</v>
       </c>
       <c r="U27" t="n">
-        <v>3301.515342038294</v>
+        <v>1939.121509145187</v>
       </c>
       <c r="V27" t="n">
-        <v>3073.119719486629</v>
+        <v>1710.725886593521</v>
       </c>
       <c r="W27" t="n">
-        <v>2831.803850719939</v>
+        <v>1469.410017826831</v>
       </c>
       <c r="X27" t="n">
-        <v>2633.886862597733</v>
+        <v>1271.493029704626</v>
       </c>
       <c r="Y27" t="n">
-        <v>2441.365536247312</v>
+        <v>1078.971703354205</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3472.607383386018</v>
+        <v>230.1623685637805</v>
       </c>
       <c r="C28" t="n">
-        <v>3337.954841890629</v>
+        <v>230.1623685637805</v>
       </c>
       <c r="D28" t="n">
-        <v>3337.954841890629</v>
+        <v>77.09047539154318</v>
       </c>
       <c r="E28" t="n">
-        <v>3337.954841890629</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="F28" t="n">
-        <v>3185.474186916406</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="G28" t="n">
-        <v>3017.23874665682</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="H28" t="n">
-        <v>2863.950224966704</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="I28" t="n">
-        <v>2740.32619962793</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="J28" t="n">
-        <v>2740.32619962793</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="K28" t="n">
-        <v>2851.85244489471</v>
+        <v>188.5681547945534</v>
       </c>
       <c r="L28" t="n">
-        <v>3052.172930297866</v>
+        <v>388.8886401977095</v>
       </c>
       <c r="M28" t="n">
-        <v>3275.300242204356</v>
+        <v>612.0159521042001</v>
       </c>
       <c r="N28" t="n">
-        <v>3496.356542817033</v>
+        <v>833.0722527168774</v>
       </c>
       <c r="O28" t="n">
-        <v>3689.61926211039</v>
+        <v>1026.334972010234</v>
       </c>
       <c r="P28" t="n">
-        <v>3833.704729662823</v>
+        <v>1170.420439562667</v>
       </c>
       <c r="Q28" t="n">
-        <v>3852.095476388678</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="R28" t="n">
-        <v>3733.342687827595</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="S28" t="n">
-        <v>3733.342687827595</v>
+        <v>987.0270523304305</v>
       </c>
       <c r="T28" t="n">
-        <v>3733.342687827595</v>
+        <v>987.0270523304305</v>
       </c>
       <c r="U28" t="n">
-        <v>3733.342687827595</v>
+        <v>699.8741387307612</v>
       </c>
       <c r="V28" t="n">
-        <v>3472.607383386018</v>
+        <v>699.8741387307612</v>
       </c>
       <c r="W28" t="n">
-        <v>3472.607383386018</v>
+        <v>413.7177372481603</v>
       </c>
       <c r="X28" t="n">
-        <v>3472.607383386018</v>
+        <v>413.7177372481603</v>
       </c>
       <c r="Y28" t="n">
-        <v>3472.607383386018</v>
+        <v>413.7177372481603</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1414.56076300886</v>
+        <v>1358.05603761791</v>
       </c>
       <c r="C29" t="n">
-        <v>1414.56076300886</v>
+        <v>1358.05603761791</v>
       </c>
       <c r="D29" t="n">
-        <v>1414.56076300886</v>
+        <v>1317.180079202874</v>
       </c>
       <c r="E29" t="n">
-        <v>1019.775043114966</v>
+        <v>922.3943593089809</v>
       </c>
       <c r="F29" t="n">
-        <v>605.6238524251368</v>
+        <v>508.2431686191512</v>
       </c>
       <c r="G29" t="n">
-        <v>191.0454140100283</v>
+        <v>508.2431686191512</v>
       </c>
       <c r="H29" t="n">
         <v>191.0454140100283</v>
@@ -6463,22 +6463,22 @@
         <v>77.04190952777356</v>
       </c>
       <c r="J29" t="n">
-        <v>275.9428125447812</v>
+        <v>275.9428125447808</v>
       </c>
       <c r="K29" t="n">
-        <v>706.2769243042312</v>
+        <v>706.2769243042306</v>
       </c>
       <c r="L29" t="n">
-        <v>1290.114449586124</v>
+        <v>1290.114449586123</v>
       </c>
       <c r="M29" t="n">
-        <v>1945.895848270827</v>
+        <v>1945.895848270826</v>
       </c>
       <c r="N29" t="n">
         <v>2591.017647190354</v>
       </c>
       <c r="O29" t="n">
-        <v>3147.944879087888</v>
+        <v>3147.944879087887</v>
       </c>
       <c r="P29" t="n">
         <v>3591.111926684483</v>
@@ -6542,25 +6542,25 @@
         <v>77.04190952777356</v>
       </c>
       <c r="J30" t="n">
-        <v>212.8782315607357</v>
+        <v>212.8782315607356</v>
       </c>
       <c r="K30" t="n">
         <v>571.5507606019696</v>
       </c>
       <c r="L30" t="n">
-        <v>633.8021907913683</v>
+        <v>1111.07371519692</v>
       </c>
       <c r="M30" t="n">
-        <v>1321.536546048342</v>
+        <v>1199.445653407644</v>
       </c>
       <c r="N30" t="n">
-        <v>1602.272818621717</v>
+        <v>1301.863557857941</v>
       </c>
       <c r="O30" t="n">
-        <v>2184.812413542198</v>
+        <v>1884.403152778421</v>
       </c>
       <c r="P30" t="n">
-        <v>2229.811094637148</v>
+        <v>2339.26341711297</v>
       </c>
       <c r="Q30" t="n">
         <v>2489.701643495571</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3502.703371708451</v>
+        <v>505.1556040794517</v>
       </c>
       <c r="C31" t="n">
-        <v>3502.703371708451</v>
+        <v>505.1556040794517</v>
       </c>
       <c r="D31" t="n">
-        <v>3349.631478536214</v>
+        <v>505.1556040794517</v>
       </c>
       <c r="E31" t="n">
-        <v>3349.631478536214</v>
+        <v>353.1465898407706</v>
       </c>
       <c r="F31" t="n">
-        <v>3197.150823561991</v>
+        <v>200.6659348665477</v>
       </c>
       <c r="G31" t="n">
-        <v>3028.915383302404</v>
+        <v>200.6659348665477</v>
       </c>
       <c r="H31" t="n">
-        <v>2875.626861612288</v>
+        <v>200.6659348665477</v>
       </c>
       <c r="I31" t="n">
-        <v>2752.002836273514</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="J31" t="n">
-        <v>2740.32619962793</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="K31" t="n">
-        <v>2851.85244489471</v>
+        <v>188.5681547945534</v>
       </c>
       <c r="L31" t="n">
-        <v>3052.172930297866</v>
+        <v>388.8886401977095</v>
       </c>
       <c r="M31" t="n">
-        <v>3275.300242204356</v>
+        <v>612.0159521042001</v>
       </c>
       <c r="N31" t="n">
-        <v>3496.356542817033</v>
+        <v>833.0722527168774</v>
       </c>
       <c r="O31" t="n">
-        <v>3689.61926211039</v>
+        <v>1026.334972010234</v>
       </c>
       <c r="P31" t="n">
-        <v>3833.704729662823</v>
+        <v>1170.420439562667</v>
       </c>
       <c r="Q31" t="n">
-        <v>3852.095476388678</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="R31" t="n">
-        <v>3852.095476388678</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="S31" t="n">
-        <v>3650.311342430587</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="T31" t="n">
-        <v>3650.311342430587</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="U31" t="n">
-        <v>3650.311342430587</v>
+        <v>1052.04731000363</v>
       </c>
       <c r="V31" t="n">
-        <v>3650.311342430587</v>
+        <v>791.3120055620526</v>
       </c>
       <c r="W31" t="n">
-        <v>3650.311342430587</v>
+        <v>505.1556040794517</v>
       </c>
       <c r="X31" t="n">
-        <v>3650.311342430587</v>
+        <v>505.1556040794517</v>
       </c>
       <c r="Y31" t="n">
-        <v>3650.311342430587</v>
+        <v>505.1556040794517</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2372.512736575697</v>
+        <v>2114.132823184471</v>
       </c>
       <c r="C32" t="n">
-        <v>1990.578977908504</v>
+        <v>1732.199064517278</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.755013135728</v>
+        <v>1359.375099744502</v>
       </c>
       <c r="E32" t="n">
-        <v>1222.969293241835</v>
+        <v>964.5893798506086</v>
       </c>
       <c r="F32" t="n">
-        <v>808.8181025520048</v>
+        <v>550.4381891607788</v>
       </c>
       <c r="G32" t="n">
-        <v>394.2396641368964</v>
+        <v>135.8597507456704</v>
       </c>
       <c r="H32" t="n">
         <v>77.04190952777356</v>
@@ -6703,7 +6703,7 @@
         <v>275.9428125447807</v>
       </c>
       <c r="K32" t="n">
-        <v>706.2769243042306</v>
+        <v>706.2769243042303</v>
       </c>
       <c r="L32" t="n">
         <v>1290.114449586123</v>
@@ -6712,13 +6712,13 @@
         <v>1945.895848270826</v>
       </c>
       <c r="N32" t="n">
-        <v>2591.017647190354</v>
+        <v>2591.017647190353</v>
       </c>
       <c r="O32" t="n">
         <v>3147.944879087887</v>
       </c>
       <c r="P32" t="n">
-        <v>3591.111926684483</v>
+        <v>3591.111926684482</v>
       </c>
       <c r="Q32" t="n">
         <v>3847.007849560114</v>
@@ -6727,25 +6727,25 @@
         <v>3852.095476388678</v>
       </c>
       <c r="S32" t="n">
-        <v>3714.75826494877</v>
+        <v>3699.629929047439</v>
       </c>
       <c r="T32" t="n">
-        <v>3497.077405621937</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="U32" t="n">
-        <v>3497.077405621937</v>
+        <v>3227.185777285056</v>
       </c>
       <c r="V32" t="n">
-        <v>3160.098131517878</v>
+        <v>2890.206503180997</v>
       </c>
       <c r="W32" t="n">
-        <v>3160.098131517878</v>
+        <v>2890.206503180997</v>
       </c>
       <c r="X32" t="n">
-        <v>3160.098131517878</v>
+        <v>2508.17636270249</v>
       </c>
       <c r="Y32" t="n">
-        <v>2766.556276093716</v>
+        <v>2508.17636270249</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>77.04190952777356</v>
       </c>
       <c r="J33" t="n">
-        <v>77.04190952777356</v>
+        <v>212.8782315607356</v>
       </c>
       <c r="K33" t="n">
-        <v>95.34767853381884</v>
+        <v>571.5507606019696</v>
       </c>
       <c r="L33" t="n">
-        <v>157.5991087232175</v>
+        <v>1111.07371519692</v>
       </c>
       <c r="M33" t="n">
-        <v>845.3334639801909</v>
+        <v>1596.894135840972</v>
       </c>
       <c r="N33" t="n">
-        <v>1564.665004210641</v>
+        <v>1699.312040291268</v>
       </c>
       <c r="O33" t="n">
-        <v>2147.204599131122</v>
+        <v>1774.950830302598</v>
       </c>
       <c r="P33" t="n">
-        <v>2489.701643495571</v>
+        <v>2229.811094637148</v>
       </c>
       <c r="Q33" t="n">
         <v>2489.701643495571</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.6190485928481</v>
+        <v>354.7665667646742</v>
       </c>
       <c r="C34" t="n">
-        <v>300.0030790545284</v>
+        <v>185.1505972263545</v>
       </c>
       <c r="D34" t="n">
-        <v>300.0030790545284</v>
+        <v>185.1505972263545</v>
       </c>
       <c r="E34" t="n">
-        <v>147.9940648158472</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="F34" t="n">
-        <v>88.71854617335813</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="G34" t="n">
-        <v>88.71854617335813</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="H34" t="n">
-        <v>88.71854617335813</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="I34" t="n">
-        <v>88.71854617335813</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="J34" t="n">
         <v>77.04190952777356</v>
@@ -6864,7 +6864,7 @@
         <v>188.5681547945534</v>
       </c>
       <c r="L34" t="n">
-        <v>388.8886401977096</v>
+        <v>388.8886401977095</v>
       </c>
       <c r="M34" t="n">
         <v>612.0159521042001</v>
@@ -6876,7 +6876,7 @@
         <v>1026.334972010234</v>
       </c>
       <c r="P34" t="n">
-        <v>1170.420439562668</v>
+        <v>1170.420439562667</v>
       </c>
       <c r="Q34" t="n">
         <v>1188.811186288522</v>
@@ -6885,25 +6885,25 @@
         <v>1188.811186288522</v>
       </c>
       <c r="S34" t="n">
-        <v>987.0270523304307</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="T34" t="n">
-        <v>756.7719621925174</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="U34" t="n">
-        <v>469.6190485928481</v>
+        <v>901.6582726888525</v>
       </c>
       <c r="V34" t="n">
-        <v>469.6190485928481</v>
+        <v>640.9229682472751</v>
       </c>
       <c r="W34" t="n">
-        <v>469.6190485928481</v>
+        <v>354.7665667646742</v>
       </c>
       <c r="X34" t="n">
-        <v>469.6190485928481</v>
+        <v>354.7665667646742</v>
       </c>
       <c r="Y34" t="n">
-        <v>469.6190485928481</v>
+        <v>354.7665667646742</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1962.775022135176</v>
+        <v>1577.099096135699</v>
       </c>
       <c r="C35" t="n">
-        <v>1962.775022135176</v>
+        <v>1195.165337468506</v>
       </c>
       <c r="D35" t="n">
-        <v>1589.951057362399</v>
+        <v>1195.165337468506</v>
       </c>
       <c r="E35" t="n">
         <v>1195.165337468506</v>
@@ -6937,52 +6937,52 @@
         <v>49.23795375444485</v>
       </c>
       <c r="J35" t="n">
-        <v>49.23795375444485</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K35" t="n">
-        <v>479.5720655138947</v>
+        <v>678.4729685309019</v>
       </c>
       <c r="L35" t="n">
-        <v>525.8796076693577</v>
+        <v>724.7805106863648</v>
       </c>
       <c r="M35" t="n">
-        <v>852.4837305168585</v>
+        <v>802.0379917657922</v>
       </c>
       <c r="N35" t="n">
-        <v>1461.803408228114</v>
+        <v>1411.357669477047</v>
       </c>
       <c r="O35" t="n">
-        <v>2018.730640125647</v>
+        <v>1968.28490137458</v>
       </c>
       <c r="P35" t="n">
-        <v>2461.897687722243</v>
+        <v>2411.451948971176</v>
       </c>
       <c r="Q35" t="n">
-        <v>2461.897687722243</v>
+        <v>2456.810060893678</v>
       </c>
       <c r="R35" t="n">
         <v>2461.897687722243</v>
       </c>
       <c r="S35" t="n">
-        <v>2309.432140381004</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="T35" t="n">
-        <v>2091.75128105417</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="U35" t="n">
-        <v>2091.75128105417</v>
+        <v>2207.134395286693</v>
       </c>
       <c r="V35" t="n">
-        <v>2091.75128105417</v>
+        <v>2207.134395286693</v>
       </c>
       <c r="W35" t="n">
-        <v>2091.75128105417</v>
+        <v>1971.142635653718</v>
       </c>
       <c r="X35" t="n">
-        <v>2091.75128105417</v>
+        <v>1971.142635653718</v>
       </c>
       <c r="Y35" t="n">
-        <v>2091.75128105417</v>
+        <v>1971.142635653718</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>181.571927270556</v>
       </c>
       <c r="H36" t="n">
-        <v>89.5172318429384</v>
+        <v>89.5172318429386</v>
       </c>
       <c r="I36" t="n">
         <v>49.23795375444485</v>
       </c>
       <c r="J36" t="n">
-        <v>49.23795375444485</v>
+        <v>185.0742757874069</v>
       </c>
       <c r="K36" t="n">
-        <v>407.9104827956788</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L36" t="n">
-        <v>470.1619129850774</v>
+        <v>1083.269759423591</v>
       </c>
       <c r="M36" t="n">
-        <v>1079.481590696332</v>
+        <v>1171.641697634315</v>
       </c>
       <c r="N36" t="n">
-        <v>1424.497828467212</v>
+        <v>1274.059602084612</v>
       </c>
       <c r="O36" t="n">
-        <v>2007.037423387693</v>
+        <v>1747.14687452927</v>
       </c>
       <c r="P36" t="n">
-        <v>2461.897687722243</v>
+        <v>2202.007138863819</v>
       </c>
       <c r="Q36" t="n">
         <v>2461.897687722243</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2048.087228899949</v>
+        <v>540.1612567245883</v>
       </c>
       <c r="C37" t="n">
-        <v>1878.47125936163</v>
+        <v>370.5452871862686</v>
       </c>
       <c r="D37" t="n">
-        <v>1725.399366189393</v>
+        <v>217.4733940140313</v>
       </c>
       <c r="E37" t="n">
-        <v>1573.390351950711</v>
+        <v>217.4733940140313</v>
       </c>
       <c r="F37" t="n">
-        <v>1473.752436300268</v>
+        <v>217.4733940140313</v>
       </c>
       <c r="G37" t="n">
-        <v>1473.752436300268</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="H37" t="n">
-        <v>1473.752436300268</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="I37" t="n">
-        <v>1350.128410961494</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J37" t="n">
-        <v>1350.128410961494</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K37" t="n">
-        <v>1461.654656228274</v>
+        <v>160.7641990212247</v>
       </c>
       <c r="L37" t="n">
-        <v>1661.97514163143</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M37" t="n">
-        <v>1885.10245353792</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N37" t="n">
-        <v>2106.158754150598</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.421473443954</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P37" t="n">
-        <v>2443.506940996388</v>
+        <v>1142.616483789339</v>
       </c>
       <c r="Q37" t="n">
-        <v>2461.897687722243</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="R37" t="n">
-        <v>2461.897687722243</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="S37" t="n">
-        <v>2461.897687722243</v>
+        <v>959.2230965571018</v>
       </c>
       <c r="T37" t="n">
-        <v>2231.642597584329</v>
+        <v>728.9680064191886</v>
       </c>
       <c r="U37" t="n">
-        <v>2231.642597584329</v>
+        <v>723.7166254089681</v>
       </c>
       <c r="V37" t="n">
-        <v>2231.642597584329</v>
+        <v>723.7166254089681</v>
       </c>
       <c r="W37" t="n">
-        <v>2231.642597584329</v>
+        <v>723.7166254089681</v>
       </c>
       <c r="X37" t="n">
-        <v>2231.642597584329</v>
+        <v>723.7166254089681</v>
       </c>
       <c r="Y37" t="n">
-        <v>2231.642597584329</v>
+        <v>723.7166254089681</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1386.756807235531</v>
+        <v>1304.165886111989</v>
       </c>
       <c r="C38" t="n">
-        <v>1386.756807235531</v>
+        <v>1304.165886111989</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.756807235531</v>
+        <v>1304.165886111989</v>
       </c>
       <c r="E38" t="n">
-        <v>991.9710873416377</v>
+        <v>909.3801662180961</v>
       </c>
       <c r="F38" t="n">
-        <v>577.8198966518081</v>
+        <v>781.0141467786761</v>
       </c>
       <c r="G38" t="n">
-        <v>163.2414582366996</v>
+        <v>366.4357083635677</v>
       </c>
       <c r="H38" t="n">
-        <v>163.2414582366996</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="I38" t="n">
         <v>49.23795375444485</v>
       </c>
       <c r="J38" t="n">
-        <v>49.23795375444485</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K38" t="n">
-        <v>479.5720655138947</v>
+        <v>678.4729685309019</v>
       </c>
       <c r="L38" t="n">
-        <v>525.8796076693577</v>
+        <v>1262.310493812794</v>
       </c>
       <c r="M38" t="n">
-        <v>603.1370887487851</v>
+        <v>1374.459474198246</v>
       </c>
       <c r="N38" t="n">
-        <v>1212.45676646004</v>
+        <v>1456.71578139955</v>
       </c>
       <c r="O38" t="n">
-        <v>1762.834717250016</v>
+        <v>2013.643013297083</v>
       </c>
       <c r="P38" t="n">
-        <v>2206.001764846611</v>
+        <v>2456.810060893678</v>
       </c>
       <c r="Q38" t="n">
-        <v>2461.897687722243</v>
+        <v>2456.810060893678</v>
       </c>
       <c r="R38" t="n">
         <v>2461.897687722243</v>
       </c>
       <c r="S38" t="n">
-        <v>2372.041229199302</v>
+        <v>2309.432140381004</v>
       </c>
       <c r="T38" t="n">
-        <v>2372.041229199302</v>
+        <v>2091.75128105417</v>
       </c>
       <c r="U38" t="n">
-        <v>2117.277936763752</v>
+        <v>2091.75128105417</v>
       </c>
       <c r="V38" t="n">
-        <v>1780.298662659693</v>
+        <v>2091.75128105417</v>
       </c>
       <c r="W38" t="n">
-        <v>1780.298662659693</v>
+        <v>2091.75128105417</v>
       </c>
       <c r="X38" t="n">
-        <v>1780.298662659693</v>
+        <v>2091.75128105417</v>
       </c>
       <c r="Y38" t="n">
-        <v>1386.756807235531</v>
+        <v>1698.209425630008</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>891.7483047996151</v>
+        <v>891.7483047996155</v>
       </c>
       <c r="C39" t="n">
-        <v>730.0446320405698</v>
+        <v>730.0446320405704</v>
       </c>
       <c r="D39" t="n">
-        <v>591.2059950307819</v>
+        <v>591.2059950307823</v>
       </c>
       <c r="E39" t="n">
-        <v>444.177985087653</v>
+        <v>444.1779850876535</v>
       </c>
       <c r="F39" t="n">
-        <v>309.4841870375274</v>
+        <v>309.4841870375278</v>
       </c>
       <c r="G39" t="n">
-        <v>181.5719272705559</v>
+        <v>181.571927270556</v>
       </c>
       <c r="H39" t="n">
         <v>89.5172318429384</v>
@@ -7256,7 +7256,7 @@
         <v>185.0742757874069</v>
       </c>
       <c r="K39" t="n">
-        <v>543.746804828641</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L39" t="n">
         <v>1083.269759423591</v>
@@ -7265,10 +7265,10 @@
         <v>1171.641697634315</v>
       </c>
       <c r="N39" t="n">
-        <v>1274.059602084612</v>
+        <v>1574.468862848389</v>
       </c>
       <c r="O39" t="n">
-        <v>1747.14687452927</v>
+        <v>2157.008457768869</v>
       </c>
       <c r="P39" t="n">
         <v>2202.007138863819</v>
@@ -7295,7 +7295,7 @@
         <v>1441.606062053503</v>
       </c>
       <c r="X39" t="n">
-        <v>1243.689073931297</v>
+        <v>1243.689073931298</v>
       </c>
       <c r="Y39" t="n">
         <v>1051.167747580876</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2111.22607559058</v>
+        <v>494.3859410429211</v>
       </c>
       <c r="C40" t="n">
-        <v>2111.22607559058</v>
+        <v>494.3859410429211</v>
       </c>
       <c r="D40" t="n">
-        <v>1958.154182418343</v>
+        <v>494.3859410429211</v>
       </c>
       <c r="E40" t="n">
-        <v>1806.145168179662</v>
+        <v>494.3859410429211</v>
       </c>
       <c r="F40" t="n">
-        <v>1653.664513205439</v>
+        <v>494.3859410429211</v>
       </c>
       <c r="G40" t="n">
-        <v>1485.429072945852</v>
+        <v>326.1505007833347</v>
       </c>
       <c r="H40" t="n">
-        <v>1485.429072945852</v>
+        <v>172.861979093219</v>
       </c>
       <c r="I40" t="n">
-        <v>1361.805047607078</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J40" t="n">
-        <v>1350.128410961494</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K40" t="n">
-        <v>1461.654656228274</v>
+        <v>160.7641990212247</v>
       </c>
       <c r="L40" t="n">
-        <v>1661.97514163143</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M40" t="n">
-        <v>1885.10245353792</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N40" t="n">
-        <v>2106.158754150598</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O40" t="n">
-        <v>2299.421473443954</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P40" t="n">
-        <v>2443.506940996388</v>
+        <v>1142.616483789339</v>
       </c>
       <c r="Q40" t="n">
-        <v>2461.897687722243</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="R40" t="n">
-        <v>2343.14489916116</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="S40" t="n">
-        <v>2343.14489916116</v>
+        <v>959.2230965571018</v>
       </c>
       <c r="T40" t="n">
-        <v>2343.14489916116</v>
+        <v>959.2230965571018</v>
       </c>
       <c r="U40" t="n">
-        <v>2343.14489916116</v>
+        <v>959.2230965571018</v>
       </c>
       <c r="V40" t="n">
-        <v>2294.78144427496</v>
+        <v>947.6735639552683</v>
       </c>
       <c r="W40" t="n">
-        <v>2294.78144427496</v>
+        <v>947.6735639552683</v>
       </c>
       <c r="X40" t="n">
-        <v>2294.78144427496</v>
+        <v>716.4210998506441</v>
       </c>
       <c r="Y40" t="n">
-        <v>2294.78144427496</v>
+        <v>494.3859410429211</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1272.753302753276</v>
+        <v>1335.659433362889</v>
       </c>
       <c r="C41" t="n">
-        <v>1272.753302753276</v>
+        <v>1335.659433362889</v>
       </c>
       <c r="D41" t="n">
-        <v>1272.753302753276</v>
+        <v>962.8354685901129</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9675828593829</v>
+        <v>568.0497486962197</v>
       </c>
       <c r="F41" t="n">
-        <v>463.8163921695533</v>
+        <v>568.0497486962197</v>
       </c>
       <c r="G41" t="n">
-        <v>49.23795375444485</v>
+        <v>153.4713102811112</v>
       </c>
       <c r="H41" t="n">
-        <v>49.23795375444485</v>
+        <v>153.4713102811112</v>
       </c>
       <c r="I41" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="J41" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="K41" t="n">
-        <v>479.5720655138947</v>
+        <v>479.5720655138946</v>
       </c>
       <c r="L41" t="n">
         <v>1063.409590795787</v>
       </c>
       <c r="M41" t="n">
-        <v>1500.832578343079</v>
+        <v>1140.667071875215</v>
       </c>
       <c r="N41" t="n">
-        <v>2110.152256054334</v>
+        <v>1749.98674958647</v>
       </c>
       <c r="O41" t="n">
-        <v>2176.989654666714</v>
+        <v>2176.989654666715</v>
       </c>
       <c r="P41" t="n">
-        <v>2206.001764846611</v>
+        <v>2206.001764846612</v>
       </c>
       <c r="Q41" t="n">
         <v>2461.897687722243</v>
@@ -7438,25 +7438,25 @@
         <v>2461.897687722243</v>
       </c>
       <c r="S41" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="T41" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="U41" t="n">
-        <v>2461.897687722243</v>
+        <v>2054.668847945455</v>
       </c>
       <c r="V41" t="n">
-        <v>2124.918413618184</v>
+        <v>1717.689573841396</v>
       </c>
       <c r="W41" t="n">
-        <v>2124.918413618184</v>
+        <v>1717.689573841396</v>
       </c>
       <c r="X41" t="n">
-        <v>1742.888273139677</v>
+        <v>1335.659433362889</v>
       </c>
       <c r="Y41" t="n">
-        <v>1666.796842271295</v>
+        <v>1335.659433362889</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>891.7483047996159</v>
+        <v>891.748304799615</v>
       </c>
       <c r="C42" t="n">
-        <v>730.0446320405706</v>
+        <v>730.0446320405697</v>
       </c>
       <c r="D42" t="n">
         <v>591.2059950307819</v>
@@ -7487,28 +7487,28 @@
         <v>89.5172318429384</v>
       </c>
       <c r="I42" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="J42" t="n">
-        <v>49.23795375444485</v>
+        <v>185.0742757874069</v>
       </c>
       <c r="K42" t="n">
-        <v>67.54372276049014</v>
+        <v>203.3800447934522</v>
       </c>
       <c r="L42" t="n">
-        <v>607.0666773554407</v>
+        <v>742.9029993884026</v>
       </c>
       <c r="M42" t="n">
-        <v>1216.386355066696</v>
+        <v>1062.189375158493</v>
       </c>
       <c r="N42" t="n">
-        <v>1825.706032777951</v>
+        <v>1164.60727960879</v>
       </c>
       <c r="O42" t="n">
-        <v>2408.245627698432</v>
+        <v>1747.146874529271</v>
       </c>
       <c r="P42" t="n">
-        <v>2461.897687722243</v>
+        <v>2202.00713886382</v>
       </c>
       <c r="Q42" t="n">
         <v>2461.897687722243</v>
@@ -7532,10 +7532,10 @@
         <v>1441.606062053503</v>
       </c>
       <c r="X42" t="n">
-        <v>1243.689073931298</v>
+        <v>1243.689073931297</v>
       </c>
       <c r="Y42" t="n">
-        <v>1051.167747580877</v>
+        <v>1051.167747580876</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1426.068934240304</v>
+        <v>202.3098469266822</v>
       </c>
       <c r="C43" t="n">
-        <v>1426.068934240304</v>
+        <v>202.3098469266822</v>
       </c>
       <c r="D43" t="n">
-        <v>1426.068934240304</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="E43" t="n">
-        <v>1426.068934240304</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="F43" t="n">
-        <v>1350.128410961494</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="G43" t="n">
-        <v>1350.128410961494</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="H43" t="n">
-        <v>1350.128410961494</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="I43" t="n">
-        <v>1350.128410961494</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="J43" t="n">
-        <v>1350.128410961494</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="K43" t="n">
-        <v>1461.654656228274</v>
+        <v>160.7641990212247</v>
       </c>
       <c r="L43" t="n">
-        <v>1661.97514163143</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M43" t="n">
-        <v>1885.10245353792</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N43" t="n">
-        <v>2106.158754150598</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O43" t="n">
-        <v>2299.421473443954</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P43" t="n">
-        <v>2443.506940996388</v>
+        <v>1142.616483789339</v>
       </c>
       <c r="Q43" t="n">
-        <v>2461.897687722243</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="R43" t="n">
-        <v>2461.897687722243</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="S43" t="n">
-        <v>2260.113553764151</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="T43" t="n">
-        <v>2260.113553764151</v>
+        <v>930.7521403772799</v>
       </c>
       <c r="U43" t="n">
-        <v>1972.960640164482</v>
+        <v>643.5992267776105</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.225335722904</v>
+        <v>643.5992267776105</v>
       </c>
       <c r="W43" t="n">
-        <v>1426.068934240304</v>
+        <v>424.345005734405</v>
       </c>
       <c r="X43" t="n">
-        <v>1426.068934240304</v>
+        <v>424.345005734405</v>
       </c>
       <c r="Y43" t="n">
-        <v>1426.068934240304</v>
+        <v>202.3098469266822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2027.511026193245</v>
+        <v>1235.196936285792</v>
       </c>
       <c r="C44" t="n">
-        <v>1645.577267526053</v>
+        <v>853.263177618599</v>
       </c>
       <c r="D44" t="n">
-        <v>1272.753302753276</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9675828593829</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="F44" t="n">
-        <v>463.8163921695533</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="G44" t="n">
-        <v>49.23795375444485</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="H44" t="n">
-        <v>49.23795375444485</v>
+        <v>163.2414582366997</v>
       </c>
       <c r="I44" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="J44" t="n">
-        <v>49.23795375444485</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K44" t="n">
-        <v>479.5720655138947</v>
+        <v>261.2978225518128</v>
       </c>
       <c r="L44" t="n">
-        <v>1063.409590795787</v>
+        <v>652.231363393738</v>
       </c>
       <c r="M44" t="n">
-        <v>1672.729268507042</v>
+        <v>1261.551041104993</v>
       </c>
       <c r="N44" t="n">
-        <v>2282.048946218298</v>
+        <v>1870.870718816248</v>
       </c>
       <c r="O44" t="n">
-        <v>2432.885577542345</v>
+        <v>2427.797950713782</v>
       </c>
       <c r="P44" t="n">
-        <v>2461.897687722243</v>
+        <v>2456.810060893679</v>
       </c>
       <c r="Q44" t="n">
-        <v>2461.897687722243</v>
+        <v>2456.810060893679</v>
       </c>
       <c r="R44" t="n">
         <v>2461.897687722243</v>
       </c>
       <c r="S44" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="T44" t="n">
-        <v>2461.897687722243</v>
+        <v>2091.751281054171</v>
       </c>
       <c r="U44" t="n">
-        <v>2207.134395286693</v>
+        <v>1836.987988618621</v>
       </c>
       <c r="V44" t="n">
-        <v>2207.134395286693</v>
+        <v>1836.987988618621</v>
       </c>
       <c r="W44" t="n">
-        <v>2207.134395286693</v>
+        <v>1617.227076764298</v>
       </c>
       <c r="X44" t="n">
-        <v>2207.134395286693</v>
+        <v>1235.196936285792</v>
       </c>
       <c r="Y44" t="n">
-        <v>2207.134395286693</v>
+        <v>1235.196936285792</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>89.5172318429384</v>
       </c>
       <c r="I45" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="J45" t="n">
         <v>185.0742757874069</v>
       </c>
       <c r="K45" t="n">
-        <v>323.2073577400788</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L45" t="n">
-        <v>862.7303123350293</v>
+        <v>605.9982350180394</v>
       </c>
       <c r="M45" t="n">
-        <v>1472.049990046284</v>
+        <v>694.3701732287628</v>
       </c>
       <c r="N45" t="n">
-        <v>2081.369667757539</v>
+        <v>1164.60727960879</v>
       </c>
       <c r="O45" t="n">
-        <v>2157.008457768869</v>
+        <v>1747.146874529271</v>
       </c>
       <c r="P45" t="n">
-        <v>2202.007138863819</v>
+        <v>2202.00713886382</v>
       </c>
       <c r="Q45" t="n">
         <v>2461.897687722243</v>
@@ -7754,13 +7754,13 @@
         <v>2452.791911839709</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.15372874835</v>
+        <v>2315.153728748349</v>
       </c>
       <c r="T45" t="n">
-        <v>2129.75864575975</v>
+        <v>2129.758645759749</v>
       </c>
       <c r="U45" t="n">
-        <v>1911.317553371859</v>
+        <v>1911.317553371858</v>
       </c>
       <c r="V45" t="n">
         <v>1682.921930820192</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>477.464517464933</v>
+        <v>324.0588163755049</v>
       </c>
       <c r="C46" t="n">
-        <v>477.464517464933</v>
+        <v>201.246967993126</v>
       </c>
       <c r="D46" t="n">
-        <v>326.1505007833347</v>
+        <v>201.246967993126</v>
       </c>
       <c r="E46" t="n">
-        <v>326.1505007833347</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="F46" t="n">
-        <v>326.1505007833347</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="G46" t="n">
-        <v>326.1505007833347</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="H46" t="n">
-        <v>172.861979093219</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="I46" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="J46" t="n">
-        <v>49.23795375444485</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="K46" t="n">
         <v>160.7641990212247</v>
       </c>
       <c r="L46" t="n">
-        <v>361.0846844243809</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M46" t="n">
-        <v>584.2119963308714</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N46" t="n">
-        <v>805.2682969435488</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O46" t="n">
-        <v>998.531016236905</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P46" t="n">
         <v>1142.616483789339</v>
@@ -7830,28 +7830,28 @@
         <v>1161.007230515193</v>
       </c>
       <c r="R46" t="n">
-        <v>1161.007230515193</v>
+        <v>1042.25444195411</v>
       </c>
       <c r="S46" t="n">
-        <v>1161.007230515193</v>
+        <v>840.4703079960191</v>
       </c>
       <c r="T46" t="n">
-        <v>930.7521403772802</v>
+        <v>610.2152178581058</v>
       </c>
       <c r="U46" t="n">
-        <v>930.7521403772802</v>
+        <v>610.2152178581058</v>
       </c>
       <c r="V46" t="n">
-        <v>930.7521403772802</v>
+        <v>610.2152178581058</v>
       </c>
       <c r="W46" t="n">
-        <v>930.7521403772802</v>
+        <v>324.0588163755049</v>
       </c>
       <c r="X46" t="n">
-        <v>699.499676272656</v>
+        <v>324.0588163755049</v>
       </c>
       <c r="Y46" t="n">
-        <v>477.464517464933</v>
+        <v>324.0588163755049</v>
       </c>
     </row>
   </sheetData>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>18.91559667621388</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>537.4365622543712</v>
+        <v>537.4365622543714</v>
       </c>
       <c r="N11" t="n">
-        <v>532.3872429393443</v>
+        <v>462.155991696682</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.72526819118031</v>
+        <v>17.52875768047076</v>
       </c>
       <c r="R11" t="n">
-        <v>80.29232883632756</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>26.70993984863037</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>371.5335692706291</v>
       </c>
       <c r="M12" t="n">
-        <v>191.1458165598017</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>512.0219931928868</v>
+        <v>512.0219931928871</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.58476813900469</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8929,28 +8929,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>537.4365622543712</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>532.3872429393443</v>
+        <v>200.2405461370254</v>
       </c>
       <c r="O14" t="n">
-        <v>305.3267431047965</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.5287576804707</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
-        <v>80.29232883632756</v>
+        <v>80.29232883632758</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>26.70993984863037</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>76.83163645940743</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>357.3457245841907</v>
       </c>
       <c r="M15" t="n">
-        <v>526.2098378793246</v>
+        <v>526.2098378793248</v>
       </c>
       <c r="N15" t="n">
-        <v>512.0219931928868</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.58476813900469</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9172,10 +9172,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>537.4365622543712</v>
+        <v>157.7545218406997</v>
       </c>
       <c r="N17" t="n">
-        <v>416.3249497016267</v>
+        <v>532.3872429393444</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.5287576804707</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
-        <v>80.29232883632756</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>219.0580838060454</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>526.2098378793246</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>401.4631135690181</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>89.62633920285884</v>
+        <v>50.95529166774392</v>
       </c>
       <c r="M20" t="n">
-        <v>537.4365622543712</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>532.3872429393443</v>
+        <v>532.3872429393444</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>17.52875768047076</v>
       </c>
       <c r="R20" t="n">
-        <v>85.43134583487716</v>
+        <v>80.29232883632758</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>26.70993984863037</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>340.5257684211329</v>
+        <v>371.5345474037669</v>
       </c>
       <c r="N21" t="n">
-        <v>512.0219931928868</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9716,7 +9716,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>26.70993984863037</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9725,19 +9725,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>401.463113569018</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>206.3554108445229</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9956,13 +9956,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>193.2235573132682</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>260.4104758168954</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.58476813900471</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10196,22 +10196,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>180.119563760685</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>162.5425725658739</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,28 +10427,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>26.70993984863037</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>401.4631135690181</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>300.503397241918</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>10.58476813900471</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>18.91559667621391</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>251.8652947152257</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>532.3872429393444</v>
+        <v>532.3872429393446</v>
       </c>
       <c r="O35" t="n">
         <v>495.0402356415689</v>
@@ -10606,10 +10606,10 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.52875768047073</v>
+        <v>63.345032349665</v>
       </c>
       <c r="R35" t="n">
-        <v>80.29232883632757</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>26.70993984863037</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>526.2098378793248</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>245.0488215359424</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>401.4631135690185</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.58476813900471</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>18.91559667621391</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>35.24393869295322</v>
       </c>
       <c r="N38" t="n">
-        <v>532.3872429393446</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>488.4248001793892</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>17.52875768047076</v>
       </c>
       <c r="R38" t="n">
-        <v>80.29232883632757</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>303.4436977411888</v>
       </c>
       <c r="O39" t="n">
-        <v>401.4631135690182</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11068,13 +11068,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>363.8035418867315</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>532.3872429393444</v>
+        <v>532.3872429393446</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>363.8035418867318</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
-        <v>80.29232883632757</v>
+        <v>80.29232883632758</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>26.70993984863037</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,19 +11147,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>526.2098378793248</v>
+        <v>233.2469066256227</v>
       </c>
       <c r="N42" t="n">
-        <v>512.0219931928868</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>8.740786796829227</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>10.58476813900471</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>18.91559667621391</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>348.1070693802649</v>
       </c>
       <c r="M44" t="n">
         <v>537.4365622543714</v>
       </c>
       <c r="N44" t="n">
-        <v>532.3872429393446</v>
+        <v>532.3872429393447</v>
       </c>
       <c r="O44" t="n">
-        <v>84.84770980976506</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>17.52875768047073</v>
+        <v>17.52875768047076</v>
       </c>
       <c r="R44" t="n">
-        <v>80.29232883632757</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>121.0376898450774</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>526.2098378793248</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>512.0219931928868</v>
+        <v>371.5345474037675</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>223.4003249291385</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I11" t="n">
         <v>112.8634694374322</v>
@@ -23314,10 +23314,10 @@
         <v>215.5040507335656</v>
       </c>
       <c r="U11" t="n">
-        <v>244.4187909629462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>21.06918226474221</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I13" t="n">
         <v>122.3877850853864</v>
       </c>
       <c r="J13" t="n">
-        <v>11.55987027912872</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2813844636727</v>
+        <v>137.9976928226906</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H14" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>150.9408918678261</v>
       </c>
       <c r="T14" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.2156595111942</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>155.39870081834</v>
       </c>
       <c r="W14" t="n">
-        <v>5.108003770836774</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -23664,10 +23664,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>132.1054849351654</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H16" t="n">
         <v>151.7556364732146</v>
@@ -23676,7 +23676,7 @@
         <v>122.3877850853864</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>43.92824760288551</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
         <v>219.8148072196457</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>191.2125018351961</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>52.61595472675407</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>150.9408918678261</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U17" t="n">
         <v>252.2156595111942</v>
@@ -23797,7 +23797,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23898,22 +23898,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>90.29627893994603</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>122.3877850853864</v>
       </c>
       <c r="J19" t="n">
-        <v>11.55987027912872</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>117.5652606754719</v>
       </c>
       <c r="S19" t="n">
         <v>199.7662926185104</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>165.1291481565705</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>169.058558902009</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>314.0257770630316</v>
+        <v>168.3934731926554</v>
       </c>
       <c r="I20" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>150.9408918678261</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>215.5040507335656</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>115.131673829094</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>151.7556364732146</v>
@@ -24150,7 +24150,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.55987027912872</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.9111244085768</v>
+        <v>117.5652606754719</v>
       </c>
       <c r="S22" t="n">
         <v>199.7662926185104</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>284.2813844636727</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>342.0867936740829</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>209.1524884680825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,28 +24366,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>55.63299276075608</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5530858569906</v>
+        <v>156.8109590747279</v>
       </c>
       <c r="H25" t="n">
         <v>151.7556364732146</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>122.3877850853864</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>284.2813844636727</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>164.5521307573787</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>10.96045636589582</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>34.61379376250144</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>150.4408438911624</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>122.3877850853864</v>
       </c>
       <c r="J28" t="n">
-        <v>11.55987027912873</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>117.5652606754719</v>
       </c>
       <c r="S28" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>227.9525392365341</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2813844636727</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>55.93967813703983</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>328.6285262941628</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H29" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.58792398262176</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T31" t="n">
         <v>227.9525392365341</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2813844636727</v>
+        <v>148.8851469416297</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>255.7961142573137</v>
       </c>
       <c r="I32" t="n">
         <v>112.8634694374322</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.97705254231761</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25083,10 +25083,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.46132327469921</v>
       </c>
       <c r="F34" t="n">
-        <v>92.27308496841648</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
         <v>166.5530858569906</v>
@@ -25098,7 +25098,7 @@
         <v>122.3877850853864</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.4166077930341</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>125.2777388043296</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -25320,22 +25320,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>52.31431193054152</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.7556364732146</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>122.3877850853864</v>
       </c>
       <c r="J37" t="n">
-        <v>11.55987027912873</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S37" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2813844636727</v>
+        <v>279.0825172635544</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>282.9273195379056</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>61.98299793011455</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>117.5652606754719</v>
       </c>
       <c r="S40" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>227.9525392365341</v>
@@ -25608,16 +25608,16 @@
         <v>284.2813844636727</v>
       </c>
       <c r="V40" t="n">
-        <v>210.248131059824</v>
+        <v>246.6939141213464</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>314.0257770630316</v>
       </c>
       <c r="I41" t="n">
-        <v>112.8634694374322</v>
+        <v>9.672446476032519</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>150.9408918678261</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>215.5040507335656</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2759203102221</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>75.77473037845884</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.5530858569906</v>
@@ -25809,7 +25809,7 @@
         <v>122.3877850853864</v>
       </c>
       <c r="J43" t="n">
-        <v>11.55987027912873</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>66.23315863500147</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.2759687203259</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H44" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>150.9408918678261</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>141.3462781051954</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -26025,13 +26025,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>46.33607994438138</v>
       </c>
       <c r="D46" t="n">
-        <v>1.740297725732546</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -26040,13 +26040,13 @@
         <v>166.5530858569906</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>122.3877850853864</v>
       </c>
       <c r="J46" t="n">
-        <v>11.55987027912873</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>117.5652606754719</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582446.5169844788</v>
+        <v>582446.5169844789</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>582446.5169844788</v>
+        <v>582446.5169844789</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>582446.516984479</v>
+        <v>582446.5169844789</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717357.5841767386</v>
+        <v>717357.5841767387</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>717357.5841767386</v>
+        <v>717357.5841767387</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>582446.516984479</v>
+        <v>582446.5169844789</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>582446.516984479</v>
+        <v>582446.5169844788</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>582446.516984479</v>
+        <v>582446.5169844789</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>631848.220993526</v>
       </c>
       <c r="C2" t="n">
-        <v>631848.2209935263</v>
+        <v>631848.2209935259</v>
       </c>
       <c r="D2" t="n">
         <v>631848.2209935262</v>
       </c>
       <c r="E2" t="n">
-        <v>432266.5363060173</v>
+        <v>432266.5363060174</v>
       </c>
       <c r="F2" t="n">
         <v>432266.5363060174</v>
@@ -26331,31 +26331,31 @@
         <v>432266.5363060173</v>
       </c>
       <c r="H2" t="n">
-        <v>432266.5363060172</v>
+        <v>432266.5363060174</v>
       </c>
       <c r="I2" t="n">
+        <v>520840.2552820468</v>
+      </c>
+      <c r="J2" t="n">
         <v>520840.2552820469</v>
       </c>
-      <c r="J2" t="n">
-        <v>520840.2552820467</v>
-      </c>
       <c r="K2" t="n">
-        <v>520840.2552820467</v>
+        <v>520840.2552820469</v>
       </c>
       <c r="L2" t="n">
-        <v>520840.2552820468</v>
+        <v>520840.2552820469</v>
       </c>
       <c r="M2" t="n">
         <v>432266.5363060174</v>
       </c>
       <c r="N2" t="n">
+        <v>432266.5363060176</v>
+      </c>
+      <c r="O2" t="n">
+        <v>432266.5363060174</v>
+      </c>
+      <c r="P2" t="n">
         <v>432266.5363060175</v>
-      </c>
-      <c r="O2" t="n">
-        <v>432266.5363060175</v>
-      </c>
-      <c r="P2" t="n">
-        <v>432266.5363060176</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>92420.69653999181</v>
+        <v>92420.69653999178</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>66767.97541107582</v>
+        <v>66767.97541107591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>392532.9083931244</v>
       </c>
       <c r="E4" t="n">
-        <v>98270.44135377182</v>
+        <v>98270.44135377188</v>
       </c>
       <c r="F4" t="n">
-        <v>98270.44135377182</v>
+        <v>98270.44135377188</v>
       </c>
       <c r="G4" t="n">
-        <v>98270.44135377182</v>
+        <v>98270.44135377186</v>
       </c>
       <c r="H4" t="n">
-        <v>98270.44135377184</v>
+        <v>98270.44135377186</v>
       </c>
       <c r="I4" t="n">
         <v>134035.8941624507</v>
@@ -26453,13 +26453,13 @@
         <v>98270.44135377185</v>
       </c>
       <c r="N4" t="n">
-        <v>98270.44135377185</v>
+        <v>98270.44135377186</v>
       </c>
       <c r="O4" t="n">
-        <v>98270.44135377185</v>
+        <v>98270.44135377188</v>
       </c>
       <c r="P4" t="n">
-        <v>98270.44135377186</v>
+        <v>98270.44135377184</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>45610.78431789311</v>
+        <v>45610.78431789312</v>
       </c>
       <c r="F5" t="n">
         <v>45610.78431789311</v>
@@ -26508,10 +26508,10 @@
         <v>45610.78431789311</v>
       </c>
       <c r="O5" t="n">
-        <v>45610.78431789311</v>
+        <v>45610.78431789312</v>
       </c>
       <c r="P5" t="n">
-        <v>45610.78431789311</v>
+        <v>45610.78431789312</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205687.7126004017</v>
+        <v>205644.0268757298</v>
       </c>
       <c r="C6" t="n">
-        <v>205687.7126004019</v>
+        <v>205644.0268757296</v>
       </c>
       <c r="D6" t="n">
-        <v>205687.7126004018</v>
+        <v>205644.0268757299</v>
       </c>
       <c r="E6" t="n">
-        <v>-197208.5056108568</v>
+        <v>-203300.121174544</v>
       </c>
       <c r="F6" t="n">
-        <v>288385.3106343524</v>
+        <v>282293.6950706651</v>
       </c>
       <c r="G6" t="n">
-        <v>288385.3106343523</v>
+        <v>282293.6950706649</v>
       </c>
       <c r="H6" t="n">
-        <v>288385.3106343523</v>
+        <v>282293.6950706652</v>
       </c>
       <c r="I6" t="n">
-        <v>227641.8738739814</v>
+        <v>224234.3104004767</v>
       </c>
       <c r="J6" t="n">
-        <v>320062.5704139731</v>
+        <v>316655.0069404686</v>
       </c>
       <c r="K6" t="n">
-        <v>320062.570413973</v>
+        <v>316655.0069404686</v>
       </c>
       <c r="L6" t="n">
-        <v>320062.5704139731</v>
+        <v>316655.0069404686</v>
       </c>
       <c r="M6" t="n">
-        <v>221617.3352232766</v>
+        <v>215525.7196595891</v>
       </c>
       <c r="N6" t="n">
-        <v>288385.3106343526</v>
+        <v>282293.6950706653</v>
       </c>
       <c r="O6" t="n">
-        <v>288385.3106343526</v>
+        <v>282293.695070665</v>
       </c>
       <c r="P6" t="n">
-        <v>288385.3106343526</v>
+        <v>282293.6950706652</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="F3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="G3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="H3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="I3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="J3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="K3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="L3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="M3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="N3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="O3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="P3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>615.4744219305605</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="F4" t="n">
-        <v>615.4744219305605</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="G4" t="n">
         <v>615.4744219305605</v>
       </c>
       <c r="H4" t="n">
-        <v>615.4744219305605</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="I4" t="n">
         <v>963.0238690971695</v>
@@ -26828,10 +26828,10 @@
         <v>615.4744219305607</v>
       </c>
       <c r="O4" t="n">
-        <v>615.4744219305607</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="P4" t="n">
-        <v>615.4744219305607</v>
+        <v>615.4744219305608</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>375.6852965373868</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>615.4744219305607</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>347.549447166609</v>
+        <v>347.5494471666088</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>267.9249747639517</v>
+        <v>267.924974763952</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>615.4744219305607</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -30826,7 +30826,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>-1.222133505507372e-12</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H11" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I11" t="n">
-        <v>58.22555736585974</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J11" t="n">
         <v>128.1842007517187</v>
       </c>
       <c r="K11" t="n">
-        <v>192.1148886006739</v>
+        <v>192.1148886006738</v>
       </c>
       <c r="L11" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M11" t="n">
         <v>265.1941741733484</v>
@@ -31776,25 +31776,25 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O11" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P11" t="n">
-        <v>217.1819708490328</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q11" t="n">
         <v>163.0946153425195</v>
       </c>
       <c r="R11" t="n">
-        <v>94.87092063765479</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S11" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T11" t="n">
-        <v>6.611306072733308</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8080778076464546</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H12" t="n">
-        <v>7.804330405427603</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I12" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J12" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K12" t="n">
         <v>130.4868449303488</v>
       </c>
       <c r="L12" t="n">
-        <v>175.4556660856919</v>
+        <v>175.4556660856918</v>
       </c>
       <c r="M12" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N12" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O12" t="n">
         <v>192.2622668043738</v>
       </c>
       <c r="P12" t="n">
-        <v>154.3074192513656</v>
+        <v>154.3074192513655</v>
       </c>
       <c r="Q12" t="n">
         <v>103.1504233058878</v>
       </c>
       <c r="R12" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S12" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T12" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05316301366095099</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6774652888379106</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H13" t="n">
-        <v>6.023282295304337</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I13" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J13" t="n">
-        <v>47.89679592084028</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K13" t="n">
-        <v>78.70914901225905</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L13" t="n">
         <v>100.7206121241381</v>
@@ -31934,25 +31934,25 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O13" t="n">
-        <v>95.75663918956216</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P13" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.72847977714541</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R13" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S13" t="n">
-        <v>11.80637235183886</v>
+        <v>11.80637235183885</v>
       </c>
       <c r="T13" t="n">
-        <v>2.894624415943799</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03695265211843153</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H14" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I14" t="n">
-        <v>58.22555736585974</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J14" t="n">
         <v>128.1842007517187</v>
       </c>
       <c r="K14" t="n">
-        <v>192.1148886006739</v>
+        <v>192.1148886006738</v>
       </c>
       <c r="L14" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M14" t="n">
         <v>265.1941741733484</v>
@@ -32013,25 +32013,25 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O14" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P14" t="n">
-        <v>217.1819708490328</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q14" t="n">
         <v>163.0946153425195</v>
       </c>
       <c r="R14" t="n">
-        <v>94.87092063765479</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S14" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T14" t="n">
-        <v>6.611306072733308</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8080778076464546</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H15" t="n">
-        <v>7.804330405427603</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I15" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J15" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K15" t="n">
         <v>130.4868449303488</v>
       </c>
       <c r="L15" t="n">
-        <v>175.4556660856919</v>
+        <v>175.4556660856918</v>
       </c>
       <c r="M15" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N15" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O15" t="n">
         <v>192.2622668043738</v>
       </c>
       <c r="P15" t="n">
-        <v>154.3074192513656</v>
+        <v>154.3074192513655</v>
       </c>
       <c r="Q15" t="n">
         <v>103.1504233058878</v>
       </c>
       <c r="R15" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S15" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T15" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05316301366095099</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6774652888379106</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H16" t="n">
-        <v>6.023282295304337</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I16" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J16" t="n">
-        <v>47.89679592084028</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K16" t="n">
-        <v>78.70914901225905</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L16" t="n">
         <v>100.7206121241381</v>
@@ -32171,25 +32171,25 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O16" t="n">
-        <v>95.75663918956216</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P16" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.72847977714541</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R16" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S16" t="n">
-        <v>11.80637235183886</v>
+        <v>11.80637235183885</v>
       </c>
       <c r="T16" t="n">
-        <v>2.894624415943799</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03695265211843153</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H17" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I17" t="n">
-        <v>58.22555736585974</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J17" t="n">
         <v>128.1842007517187</v>
       </c>
       <c r="K17" t="n">
-        <v>192.1148886006739</v>
+        <v>192.1148886006738</v>
       </c>
       <c r="L17" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M17" t="n">
         <v>265.1941741733484</v>
@@ -32250,25 +32250,25 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O17" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P17" t="n">
-        <v>217.1819708490328</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q17" t="n">
         <v>163.0946153425195</v>
       </c>
       <c r="R17" t="n">
-        <v>94.87092063765479</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S17" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T17" t="n">
-        <v>6.611306072733308</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8080778076464546</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H18" t="n">
-        <v>7.804330405427603</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I18" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J18" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K18" t="n">
         <v>130.4868449303488</v>
       </c>
       <c r="L18" t="n">
-        <v>175.4556660856919</v>
+        <v>175.4556660856918</v>
       </c>
       <c r="M18" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N18" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O18" t="n">
         <v>192.2622668043738</v>
       </c>
       <c r="P18" t="n">
-        <v>154.3074192513656</v>
+        <v>154.3074192513655</v>
       </c>
       <c r="Q18" t="n">
         <v>103.1504233058878</v>
       </c>
       <c r="R18" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S18" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T18" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05316301366095099</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6774652888379106</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H19" t="n">
-        <v>6.023282295304337</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I19" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J19" t="n">
-        <v>47.89679592084028</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K19" t="n">
-        <v>78.70914901225905</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L19" t="n">
         <v>100.7206121241381</v>
@@ -32408,25 +32408,25 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O19" t="n">
-        <v>95.75663918956216</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P19" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.72847977714541</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R19" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S19" t="n">
-        <v>11.80637235183886</v>
+        <v>11.80637235183885</v>
       </c>
       <c r="T19" t="n">
-        <v>2.894624415943799</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03695265211843153</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H20" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I20" t="n">
-        <v>58.22555736585974</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J20" t="n">
         <v>128.1842007517187</v>
       </c>
       <c r="K20" t="n">
-        <v>192.1148886006739</v>
+        <v>192.1148886006738</v>
       </c>
       <c r="L20" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M20" t="n">
         <v>265.1941741733484</v>
@@ -32487,25 +32487,25 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O20" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P20" t="n">
-        <v>217.1819708490328</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q20" t="n">
         <v>163.0946153425195</v>
       </c>
       <c r="R20" t="n">
-        <v>94.87092063765479</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S20" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T20" t="n">
-        <v>6.611306072733308</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8080778076464546</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H21" t="n">
-        <v>7.804330405427603</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I21" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J21" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K21" t="n">
         <v>130.4868449303488</v>
       </c>
       <c r="L21" t="n">
-        <v>175.4556660856919</v>
+        <v>175.4556660856918</v>
       </c>
       <c r="M21" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N21" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O21" t="n">
         <v>192.2622668043738</v>
       </c>
       <c r="P21" t="n">
-        <v>154.3074192513656</v>
+        <v>154.3074192513655</v>
       </c>
       <c r="Q21" t="n">
         <v>103.1504233058878</v>
       </c>
       <c r="R21" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S21" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T21" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05316301366095099</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6774652888379106</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H22" t="n">
-        <v>6.023282295304337</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I22" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J22" t="n">
-        <v>47.89679592084028</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K22" t="n">
-        <v>78.70914901225905</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L22" t="n">
         <v>100.7206121241381</v>
@@ -32645,25 +32645,25 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O22" t="n">
-        <v>95.75663918956216</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P22" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.72847977714541</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R22" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S22" t="n">
-        <v>11.80637235183886</v>
+        <v>11.80637235183885</v>
       </c>
       <c r="T22" t="n">
-        <v>2.894624415943799</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03695265211843153</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H23" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I23" t="n">
-        <v>58.22555736585974</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J23" t="n">
         <v>128.1842007517187</v>
       </c>
       <c r="K23" t="n">
-        <v>192.1148886006739</v>
+        <v>192.1148886006738</v>
       </c>
       <c r="L23" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M23" t="n">
         <v>265.1941741733484</v>
@@ -32724,25 +32724,25 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O23" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P23" t="n">
-        <v>217.1819708490328</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q23" t="n">
         <v>163.0946153425195</v>
       </c>
       <c r="R23" t="n">
-        <v>94.87092063765479</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S23" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T23" t="n">
-        <v>6.611306072733308</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8080778076464546</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H24" t="n">
-        <v>7.804330405427603</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I24" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J24" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K24" t="n">
         <v>130.4868449303488</v>
       </c>
       <c r="L24" t="n">
-        <v>175.4556660856919</v>
+        <v>175.4556660856918</v>
       </c>
       <c r="M24" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N24" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O24" t="n">
         <v>192.2622668043738</v>
       </c>
       <c r="P24" t="n">
-        <v>154.3074192513656</v>
+        <v>154.3074192513655</v>
       </c>
       <c r="Q24" t="n">
         <v>103.1504233058878</v>
       </c>
       <c r="R24" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S24" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T24" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05316301366095099</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6774652888379106</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H25" t="n">
-        <v>6.023282295304337</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I25" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J25" t="n">
-        <v>47.89679592084028</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K25" t="n">
-        <v>78.70914901225905</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L25" t="n">
         <v>100.7206121241381</v>
@@ -32882,25 +32882,25 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O25" t="n">
-        <v>95.75663918956216</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P25" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.72847977714541</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R25" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S25" t="n">
-        <v>11.80637235183886</v>
+        <v>11.80637235183885</v>
       </c>
       <c r="T25" t="n">
-        <v>2.894624415943799</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03695265211843153</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H26" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I26" t="n">
-        <v>58.22555736585972</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J26" t="n">
         <v>128.1842007517187</v>
@@ -32952,7 +32952,7 @@
         <v>192.1148886006738</v>
       </c>
       <c r="L26" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M26" t="n">
         <v>265.1941741733484</v>
@@ -32961,7 +32961,7 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O26" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P26" t="n">
         <v>217.1819708490327</v>
@@ -32970,16 +32970,16 @@
         <v>163.0946153425195</v>
       </c>
       <c r="R26" t="n">
-        <v>94.87092063765478</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S26" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T26" t="n">
-        <v>6.611306072733307</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8080778076464545</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H27" t="n">
-        <v>7.804330405427602</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I27" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J27" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K27" t="n">
         <v>130.4868449303488</v>
@@ -33034,10 +33034,10 @@
         <v>175.4556660856918</v>
       </c>
       <c r="M27" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N27" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O27" t="n">
         <v>192.2622668043738</v>
@@ -33049,16 +33049,16 @@
         <v>103.1504233058878</v>
       </c>
       <c r="R27" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S27" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T27" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05316301366095098</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6774652888379105</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H28" t="n">
-        <v>6.023282295304336</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I28" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J28" t="n">
-        <v>47.89679592084027</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K28" t="n">
-        <v>78.70914901225903</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L28" t="n">
         <v>100.7206121241381</v>
@@ -33119,16 +33119,16 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O28" t="n">
-        <v>95.75663918956215</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P28" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.7284797771454</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R28" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S28" t="n">
         <v>11.80637235183885</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H29" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I29" t="n">
-        <v>58.22555736585972</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J29" t="n">
         <v>128.1842007517187</v>
@@ -33189,7 +33189,7 @@
         <v>192.1148886006738</v>
       </c>
       <c r="L29" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M29" t="n">
         <v>265.1941741733484</v>
@@ -33198,7 +33198,7 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O29" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P29" t="n">
         <v>217.1819708490327</v>
@@ -33207,16 +33207,16 @@
         <v>163.0946153425195</v>
       </c>
       <c r="R29" t="n">
-        <v>94.87092063765478</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S29" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T29" t="n">
-        <v>6.611306072733307</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8080778076464545</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H30" t="n">
-        <v>7.804330405427602</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I30" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J30" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K30" t="n">
         <v>130.4868449303488</v>
@@ -33271,10 +33271,10 @@
         <v>175.4556660856918</v>
       </c>
       <c r="M30" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N30" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O30" t="n">
         <v>192.2622668043738</v>
@@ -33286,16 +33286,16 @@
         <v>103.1504233058878</v>
       </c>
       <c r="R30" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S30" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T30" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05316301366095098</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6774652888379105</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H31" t="n">
-        <v>6.023282295304336</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I31" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J31" t="n">
-        <v>47.89679592084027</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K31" t="n">
-        <v>78.70914901225903</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L31" t="n">
         <v>100.7206121241381</v>
@@ -33356,16 +33356,16 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O31" t="n">
-        <v>95.75663918956215</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P31" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.7284797771454</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R31" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S31" t="n">
         <v>11.80637235183885</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H32" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I32" t="n">
-        <v>58.22555736585972</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J32" t="n">
         <v>128.1842007517187</v>
@@ -33426,7 +33426,7 @@
         <v>192.1148886006738</v>
       </c>
       <c r="L32" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M32" t="n">
         <v>265.1941741733484</v>
@@ -33435,7 +33435,7 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O32" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P32" t="n">
         <v>217.1819708490327</v>
@@ -33444,16 +33444,16 @@
         <v>163.0946153425195</v>
       </c>
       <c r="R32" t="n">
-        <v>94.87092063765478</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S32" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T32" t="n">
-        <v>6.611306072733307</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8080778076464545</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H33" t="n">
-        <v>7.804330405427602</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I33" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J33" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K33" t="n">
         <v>130.4868449303488</v>
@@ -33508,10 +33508,10 @@
         <v>175.4556660856918</v>
       </c>
       <c r="M33" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N33" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O33" t="n">
         <v>192.2622668043738</v>
@@ -33523,16 +33523,16 @@
         <v>103.1504233058878</v>
       </c>
       <c r="R33" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S33" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T33" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05316301366095098</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6774652888379105</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H34" t="n">
-        <v>6.023282295304336</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I34" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J34" t="n">
-        <v>47.89679592084027</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K34" t="n">
-        <v>78.70914901225903</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L34" t="n">
         <v>100.7206121241381</v>
@@ -33593,16 +33593,16 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O34" t="n">
-        <v>95.75663918956215</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P34" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.7284797771454</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R34" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S34" t="n">
         <v>11.80637235183885</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H35" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I35" t="n">
-        <v>58.22555736585972</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J35" t="n">
         <v>128.1842007517187</v>
@@ -33663,7 +33663,7 @@
         <v>192.1148886006738</v>
       </c>
       <c r="L35" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M35" t="n">
         <v>265.1941741733484</v>
@@ -33672,7 +33672,7 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O35" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P35" t="n">
         <v>217.1819708490327</v>
@@ -33681,16 +33681,16 @@
         <v>163.0946153425195</v>
       </c>
       <c r="R35" t="n">
-        <v>94.87092063765478</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S35" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T35" t="n">
-        <v>6.611306072733307</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8080778076464545</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H36" t="n">
-        <v>7.804330405427602</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I36" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J36" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K36" t="n">
         <v>130.4868449303488</v>
@@ -33745,10 +33745,10 @@
         <v>175.4556660856918</v>
       </c>
       <c r="M36" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N36" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O36" t="n">
         <v>192.2622668043738</v>
@@ -33760,16 +33760,16 @@
         <v>103.1504233058878</v>
       </c>
       <c r="R36" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S36" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T36" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05316301366095098</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6774652888379105</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H37" t="n">
-        <v>6.023282295304336</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I37" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J37" t="n">
-        <v>47.89679592084027</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K37" t="n">
-        <v>78.70914901225903</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L37" t="n">
         <v>100.7206121241381</v>
@@ -33830,16 +33830,16 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O37" t="n">
-        <v>95.75663918956215</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P37" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.7284797771454</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R37" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S37" t="n">
         <v>11.80637235183885</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H38" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I38" t="n">
-        <v>58.22555736585972</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J38" t="n">
         <v>128.1842007517187</v>
@@ -33900,7 +33900,7 @@
         <v>192.1148886006738</v>
       </c>
       <c r="L38" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M38" t="n">
         <v>265.1941741733484</v>
@@ -33909,7 +33909,7 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O38" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P38" t="n">
         <v>217.1819708490327</v>
@@ -33918,16 +33918,16 @@
         <v>163.0946153425195</v>
       </c>
       <c r="R38" t="n">
-        <v>94.87092063765478</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S38" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T38" t="n">
-        <v>6.611306072733307</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8080778076464545</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H39" t="n">
-        <v>7.804330405427602</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I39" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J39" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K39" t="n">
         <v>130.4868449303488</v>
@@ -33982,10 +33982,10 @@
         <v>175.4556660856918</v>
       </c>
       <c r="M39" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N39" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O39" t="n">
         <v>192.2622668043738</v>
@@ -33997,16 +33997,16 @@
         <v>103.1504233058878</v>
       </c>
       <c r="R39" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S39" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T39" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05316301366095098</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6774652888379105</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H40" t="n">
-        <v>6.023282295304336</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I40" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J40" t="n">
-        <v>47.89679592084027</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K40" t="n">
-        <v>78.70914901225903</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L40" t="n">
         <v>100.7206121241381</v>
@@ -34067,16 +34067,16 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O40" t="n">
-        <v>95.75663918956215</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P40" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.7284797771454</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R40" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S40" t="n">
         <v>11.80637235183885</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H41" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I41" t="n">
-        <v>58.22555736585972</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J41" t="n">
         <v>128.1842007517187</v>
@@ -34137,7 +34137,7 @@
         <v>192.1148886006738</v>
       </c>
       <c r="L41" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M41" t="n">
         <v>265.1941741733484</v>
@@ -34146,7 +34146,7 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O41" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P41" t="n">
         <v>217.1819708490327</v>
@@ -34155,16 +34155,16 @@
         <v>163.0946153425195</v>
       </c>
       <c r="R41" t="n">
-        <v>94.87092063765478</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S41" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T41" t="n">
-        <v>6.611306072733307</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8080778076464545</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H42" t="n">
-        <v>7.804330405427602</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I42" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J42" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K42" t="n">
         <v>130.4868449303488</v>
@@ -34219,10 +34219,10 @@
         <v>175.4556660856918</v>
       </c>
       <c r="M42" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N42" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O42" t="n">
         <v>192.2622668043738</v>
@@ -34234,16 +34234,16 @@
         <v>103.1504233058878</v>
       </c>
       <c r="R42" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S42" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T42" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05316301366095098</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6774652888379105</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H43" t="n">
-        <v>6.023282295304336</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I43" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J43" t="n">
-        <v>47.89679592084027</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K43" t="n">
-        <v>78.70914901225903</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L43" t="n">
         <v>100.7206121241381</v>
@@ -34304,16 +34304,16 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O43" t="n">
-        <v>95.75663918956215</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P43" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q43" t="n">
-        <v>56.7284797771454</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R43" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S43" t="n">
         <v>11.80637235183885</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.510292649396529</v>
+        <v>1.510292649396528</v>
       </c>
       <c r="H44" t="n">
         <v>15.4672845956322</v>
       </c>
       <c r="I44" t="n">
-        <v>58.22555736585972</v>
+        <v>58.22555736585971</v>
       </c>
       <c r="J44" t="n">
         <v>128.1842007517187</v>
@@ -34374,7 +34374,7 @@
         <v>192.1148886006738</v>
       </c>
       <c r="L44" t="n">
-        <v>238.3355072696429</v>
+        <v>238.3355072696428</v>
       </c>
       <c r="M44" t="n">
         <v>265.1941741733484</v>
@@ -34383,7 +34383,7 @@
         <v>269.4852931634463</v>
       </c>
       <c r="O44" t="n">
-        <v>254.4673206310096</v>
+        <v>254.4673206310095</v>
       </c>
       <c r="P44" t="n">
         <v>217.1819708490327</v>
@@ -34392,16 +34392,16 @@
         <v>163.0946153425195</v>
       </c>
       <c r="R44" t="n">
-        <v>94.87092063765478</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S44" t="n">
         <v>34.41579374812343</v>
       </c>
       <c r="T44" t="n">
-        <v>6.611306072733307</v>
+        <v>6.611306072733306</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1208234119517223</v>
+        <v>0.1208234119517222</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8080778076464545</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H45" t="n">
-        <v>7.804330405427602</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I45" t="n">
-        <v>27.82197714923101</v>
+        <v>27.821977149231</v>
       </c>
       <c r="J45" t="n">
-        <v>76.34563181803632</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K45" t="n">
         <v>130.4868449303488</v>
@@ -34456,10 +34456,10 @@
         <v>175.4556660856918</v>
       </c>
       <c r="M45" t="n">
-        <v>204.7484866128758</v>
+        <v>204.7484866128757</v>
       </c>
       <c r="N45" t="n">
-        <v>210.1675698053821</v>
+        <v>210.167569805382</v>
       </c>
       <c r="O45" t="n">
         <v>192.2622668043738</v>
@@ -34471,16 +34471,16 @@
         <v>103.1504233058878</v>
       </c>
       <c r="R45" t="n">
-        <v>50.17170809229481</v>
+        <v>50.17170809229479</v>
       </c>
       <c r="S45" t="n">
         <v>15.00969085694181</v>
       </c>
       <c r="T45" t="n">
-        <v>3.257120636960928</v>
+        <v>3.257120636960927</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05316301366095098</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6774652888379105</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H46" t="n">
-        <v>6.023282295304336</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I46" t="n">
-        <v>20.3732288679619</v>
+        <v>20.37322886796189</v>
       </c>
       <c r="J46" t="n">
-        <v>47.89679592084027</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K46" t="n">
-        <v>78.70914901225903</v>
+        <v>78.70914901225902</v>
       </c>
       <c r="L46" t="n">
         <v>100.7206121241381</v>
@@ -34541,16 +34541,16 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O46" t="n">
-        <v>95.75663918956215</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P46" t="n">
-        <v>81.93634729726871</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q46" t="n">
-        <v>56.7284797771454</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R46" t="n">
-        <v>30.46130289629368</v>
+        <v>30.46130289629367</v>
       </c>
       <c r="S46" t="n">
         <v>11.80637235183885</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>200.910003047482</v>
       </c>
       <c r="K11" t="n">
-        <v>13.29188462662714</v>
+        <v>13.29188462662708</v>
       </c>
       <c r="L11" t="n">
-        <v>589.7348740221139</v>
+        <v>46.77529510652823</v>
       </c>
       <c r="M11" t="n">
-        <v>615.4744219305605</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="N11" t="n">
-        <v>615.4744219305605</v>
+        <v>545.2431706878981</v>
       </c>
       <c r="O11" t="n">
-        <v>562.552759492458</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P11" t="n">
-        <v>29.30516179787625</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.19651051070961</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K12" t="n">
         <v>362.2954838800343</v>
       </c>
       <c r="L12" t="n">
-        <v>544.972681409041</v>
+        <v>434.4138017851731</v>
       </c>
       <c r="M12" t="n">
-        <v>280.4104006110376</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N12" t="n">
-        <v>615.4744219305605</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="O12" t="n">
-        <v>588.423833253011</v>
+        <v>76.40281819326265</v>
       </c>
       <c r="P12" t="n">
-        <v>45.45321322722224</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,13 +35573,13 @@
         <v>112.6527729967473</v>
       </c>
       <c r="L13" t="n">
-        <v>202.3439246496528</v>
+        <v>202.3439246496527</v>
       </c>
       <c r="M13" t="n">
         <v>225.3811231378692</v>
       </c>
       <c r="N13" t="n">
-        <v>223.289192538058</v>
+        <v>223.2891925380579</v>
       </c>
       <c r="O13" t="n">
         <v>195.2148679730871</v>
@@ -35588,7 +35588,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.57651184429756</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>200.910003047482</v>
       </c>
       <c r="K14" t="n">
-        <v>13.29188462662714</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L14" t="n">
-        <v>589.7348740221139</v>
+        <v>589.7348740221138</v>
       </c>
       <c r="M14" t="n">
-        <v>615.4744219305605</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N14" t="n">
-        <v>615.4744219305605</v>
+        <v>283.3277251282416</v>
       </c>
       <c r="O14" t="n">
-        <v>372.8392669556857</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P14" t="n">
-        <v>29.30516179787625</v>
+        <v>29.3051617978762</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>258.4807301774053</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K15" t="n">
-        <v>95.32231222308954</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L15" t="n">
-        <v>62.88023251454408</v>
+        <v>420.2259570987348</v>
       </c>
       <c r="M15" t="n">
-        <v>615.4744219305605</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="N15" t="n">
-        <v>615.4744219305605</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O15" t="n">
-        <v>588.423833253011</v>
+        <v>76.40281819326265</v>
       </c>
       <c r="P15" t="n">
-        <v>459.4548124591406</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,13 +35810,13 @@
         <v>112.6527729967473</v>
       </c>
       <c r="L16" t="n">
-        <v>202.3439246496528</v>
+        <v>202.3439246496527</v>
       </c>
       <c r="M16" t="n">
         <v>225.3811231378692</v>
       </c>
       <c r="N16" t="n">
-        <v>223.289192538058</v>
+        <v>223.2891925380579</v>
       </c>
       <c r="O16" t="n">
         <v>195.2148679730871</v>
@@ -35825,7 +35825,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.57651184429756</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>200.910003047482</v>
       </c>
       <c r="K17" t="n">
-        <v>434.6809209691413</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L17" t="n">
-        <v>589.7348740221139</v>
+        <v>589.7348740221138</v>
       </c>
       <c r="M17" t="n">
+        <v>235.7923815168889</v>
+      </c>
+      <c r="N17" t="n">
         <v>615.4744219305605</v>
       </c>
-      <c r="N17" t="n">
-        <v>499.4121286928429</v>
-      </c>
       <c r="O17" t="n">
-        <v>67.51252385088912</v>
+        <v>67.51252385088904</v>
       </c>
       <c r="P17" t="n">
-        <v>29.30516179787625</v>
+        <v>29.3051617978762</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>258.4807301774053</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>137.2084060939011</v>
       </c>
       <c r="K18" t="n">
-        <v>237.5487595697275</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L18" t="n">
-        <v>544.972681409041</v>
+        <v>544.9726814090409</v>
       </c>
       <c r="M18" t="n">
-        <v>615.4744219305605</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N18" t="n">
-        <v>103.4524287376738</v>
+        <v>504.9155423066919</v>
       </c>
       <c r="O18" t="n">
-        <v>76.4028181932627</v>
+        <v>76.40281819326265</v>
       </c>
       <c r="P18" t="n">
-        <v>459.4548124591406</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q18" t="n">
         <v>262.5157059175991</v>
@@ -36047,13 +36047,13 @@
         <v>112.6527729967473</v>
       </c>
       <c r="L19" t="n">
-        <v>202.3439246496528</v>
+        <v>202.3439246496527</v>
       </c>
       <c r="M19" t="n">
         <v>225.3811231378692</v>
       </c>
       <c r="N19" t="n">
-        <v>223.289192538058</v>
+        <v>223.2891925380579</v>
       </c>
       <c r="O19" t="n">
         <v>195.2148679730871</v>
@@ -36062,7 +36062,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.57651184429756</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>200.910003047482</v>
       </c>
       <c r="K20" t="n">
-        <v>13.29188462662714</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L20" t="n">
-        <v>136.4016343093872</v>
+        <v>97.73058677427215</v>
       </c>
       <c r="M20" t="n">
-        <v>615.4744219305605</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N20" t="n">
-        <v>615.4744219305605</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="O20" t="n">
-        <v>562.552759492458</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P20" t="n">
-        <v>29.30516179787625</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q20" t="n">
-        <v>258.4807301774053</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.139016998549607</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K21" t="n">
-        <v>18.49067576368211</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L21" t="n">
-        <v>62.88023251454408</v>
+        <v>62.88023251454402</v>
       </c>
       <c r="M21" t="n">
-        <v>429.7903524723687</v>
+        <v>460.7991314550027</v>
       </c>
       <c r="N21" t="n">
-        <v>615.4744219305605</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O21" t="n">
         <v>588.423833253011</v>
       </c>
       <c r="P21" t="n">
-        <v>459.4548124591406</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q21" t="n">
         <v>262.5157059175991</v>
@@ -36284,13 +36284,13 @@
         <v>112.6527729967473</v>
       </c>
       <c r="L22" t="n">
-        <v>202.3439246496528</v>
+        <v>202.3439246496527</v>
       </c>
       <c r="M22" t="n">
         <v>225.3811231378692</v>
       </c>
       <c r="N22" t="n">
-        <v>223.289192538058</v>
+        <v>223.2891925380579</v>
       </c>
       <c r="O22" t="n">
         <v>195.2148679730871</v>
@@ -36299,7 +36299,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.57651184429756</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>200.910003047482</v>
       </c>
       <c r="K23" t="n">
-        <v>434.6809209691413</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L23" t="n">
-        <v>589.7348740221139</v>
+        <v>589.7348740221138</v>
       </c>
       <c r="M23" t="n">
         <v>662.4054532168716</v>
@@ -36372,16 +36372,16 @@
         <v>651.6381807267956</v>
       </c>
       <c r="O23" t="n">
-        <v>562.552759492458</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P23" t="n">
-        <v>447.6434824208037</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q23" t="n">
         <v>258.4807301774053</v>
       </c>
       <c r="R23" t="n">
-        <v>5.139016998549607</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K24" t="n">
         <v>362.2954838800343</v>
       </c>
       <c r="L24" t="n">
-        <v>544.972681409041</v>
+        <v>544.9726814090409</v>
       </c>
       <c r="M24" t="n">
-        <v>694.6811669262358</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N24" t="n">
-        <v>103.4524287376738</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O24" t="n">
-        <v>76.4028181932627</v>
+        <v>477.8659317622806</v>
       </c>
       <c r="P24" t="n">
-        <v>459.4548124591406</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q24" t="n">
-        <v>195.7706427055182</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,13 +36521,13 @@
         <v>112.6527729967473</v>
       </c>
       <c r="L25" t="n">
-        <v>202.3439246496528</v>
+        <v>202.3439246496527</v>
       </c>
       <c r="M25" t="n">
         <v>225.3811231378692</v>
       </c>
       <c r="N25" t="n">
-        <v>223.289192538058</v>
+        <v>223.2891925380579</v>
       </c>
       <c r="O25" t="n">
         <v>195.2148679730871</v>
@@ -36536,7 +36536,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.57651184429756</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>200.910003047482</v>
       </c>
       <c r="K26" t="n">
-        <v>434.6809209691413</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L26" t="n">
         <v>589.7348740221138</v>
@@ -36609,16 +36609,16 @@
         <v>651.6381807267956</v>
       </c>
       <c r="O26" t="n">
-        <v>562.552759492458</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P26" t="n">
-        <v>447.6434824208037</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q26" t="n">
         <v>258.4807301774053</v>
       </c>
       <c r="R26" t="n">
-        <v>5.139016998549593</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>137.2084060939011</v>
       </c>
       <c r="K27" t="n">
-        <v>211.7142330769503</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L27" t="n">
-        <v>544.972681409041</v>
+        <v>323.2907083314395</v>
       </c>
       <c r="M27" t="n">
-        <v>694.6811669262358</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N27" t="n">
         <v>726.5975153842933</v>
       </c>
       <c r="O27" t="n">
-        <v>76.40281819326268</v>
+        <v>76.40281819326265</v>
       </c>
       <c r="P27" t="n">
-        <v>45.45321322722221</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.57651184429755</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>200.910003047482</v>
       </c>
       <c r="K29" t="n">
-        <v>434.6809209691413</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L29" t="n">
         <v>589.7348740221138</v>
@@ -36846,16 +36846,16 @@
         <v>651.6381807267956</v>
       </c>
       <c r="O29" t="n">
-        <v>562.552759492458</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P29" t="n">
-        <v>447.6434824208037</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q29" t="n">
         <v>258.4807301774053</v>
       </c>
       <c r="R29" t="n">
-        <v>5.139016998549593</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>362.2954838800343</v>
       </c>
       <c r="L30" t="n">
-        <v>62.88023251454405</v>
+        <v>544.9726814090409</v>
       </c>
       <c r="M30" t="n">
-        <v>694.6811669262358</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N30" t="n">
-        <v>283.5719924983587</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O30" t="n">
         <v>588.423833253011</v>
       </c>
       <c r="P30" t="n">
-        <v>45.45321322722221</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q30" t="n">
-        <v>262.5157059175991</v>
+        <v>151.9578044268692</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.57651184429755</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>200.910003047482</v>
       </c>
       <c r="K32" t="n">
-        <v>434.6809209691413</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L32" t="n">
         <v>589.7348740221138</v>
@@ -37083,16 +37083,16 @@
         <v>651.6381807267956</v>
       </c>
       <c r="O32" t="n">
-        <v>562.552759492458</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P32" t="n">
-        <v>447.6434824208037</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q32" t="n">
         <v>258.4807301774053</v>
       </c>
       <c r="R32" t="n">
-        <v>5.139016998549593</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K33" t="n">
-        <v>18.49067576368211</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L33" t="n">
-        <v>62.88023251454405</v>
+        <v>544.9726814090409</v>
       </c>
       <c r="M33" t="n">
-        <v>694.6811669262358</v>
+        <v>490.7276976202539</v>
       </c>
       <c r="N33" t="n">
-        <v>726.5975153842933</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O33" t="n">
-        <v>588.423833253011</v>
+        <v>76.40281819326265</v>
       </c>
       <c r="P33" t="n">
-        <v>345.9566104691402</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.57651184429755</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>200.910003047482</v>
       </c>
       <c r="K35" t="n">
-        <v>434.6809209691413</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L35" t="n">
-        <v>46.77529510652826</v>
+        <v>46.77529510652823</v>
       </c>
       <c r="M35" t="n">
-        <v>329.9031543914149</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N35" t="n">
         <v>615.4744219305607</v>
       </c>
       <c r="O35" t="n">
-        <v>562.552759492458</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P35" t="n">
-        <v>447.6434824208037</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>45.81627466919424</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K36" t="n">
         <v>362.2954838800343</v>
       </c>
       <c r="L36" t="n">
-        <v>62.88023251454405</v>
+        <v>544.9726814090409</v>
       </c>
       <c r="M36" t="n">
-        <v>615.4744219305607</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N36" t="n">
-        <v>348.5012502736162</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O36" t="n">
-        <v>588.423833253011</v>
+        <v>477.8659317622811</v>
       </c>
       <c r="P36" t="n">
         <v>459.4548124591405</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.57651184429755</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>200.910003047482</v>
       </c>
       <c r="K38" t="n">
-        <v>434.6809209691413</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L38" t="n">
-        <v>46.77529510652826</v>
+        <v>589.7348740221138</v>
       </c>
       <c r="M38" t="n">
-        <v>78.03785967618927</v>
+        <v>113.2817983691425</v>
       </c>
       <c r="N38" t="n">
-        <v>615.4744219305607</v>
+        <v>83.08717899121615</v>
       </c>
       <c r="O38" t="n">
-        <v>555.9373240302783</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P38" t="n">
-        <v>447.6434824208037</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q38" t="n">
-        <v>258.4807301774053</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>362.2954838800343</v>
       </c>
       <c r="L39" t="n">
-        <v>544.972681409041</v>
+        <v>544.9726814090409</v>
       </c>
       <c r="M39" t="n">
-        <v>89.26458405123586</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N39" t="n">
-        <v>103.4524287376738</v>
+        <v>406.8961264788625</v>
       </c>
       <c r="O39" t="n">
-        <v>477.8659317622809</v>
+        <v>588.423833253011</v>
       </c>
       <c r="P39" t="n">
-        <v>459.4548124591405</v>
+        <v>45.45321322722218</v>
       </c>
       <c r="Q39" t="n">
         <v>262.5157059175991</v>
@@ -37721,7 +37721,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.57651184429755</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>434.6809209691413</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L41" t="n">
         <v>589.7348740221138</v>
       </c>
       <c r="M41" t="n">
-        <v>441.8414015629207</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N41" t="n">
-        <v>615.4744219305607</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="O41" t="n">
-        <v>67.5125238508891</v>
+        <v>431.3160657376208</v>
       </c>
       <c r="P41" t="n">
-        <v>29.30516179787622</v>
+        <v>29.3051617978762</v>
       </c>
       <c r="Q41" t="n">
         <v>258.4807301774053</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K42" t="n">
-        <v>18.49067576368211</v>
+        <v>18.49067576368208</v>
       </c>
       <c r="L42" t="n">
-        <v>544.972681409041</v>
+        <v>544.9726814090409</v>
       </c>
       <c r="M42" t="n">
-        <v>615.4744219305607</v>
+        <v>322.5114906768586</v>
       </c>
       <c r="N42" t="n">
-        <v>615.4744219305607</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O42" t="n">
         <v>588.423833253011</v>
       </c>
       <c r="P42" t="n">
-        <v>54.19400002405143</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.57651184429755</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>200.910003047482</v>
       </c>
       <c r="K44" t="n">
-        <v>434.6809209691413</v>
+        <v>13.29188462662708</v>
       </c>
       <c r="L44" t="n">
-        <v>589.7348740221138</v>
+        <v>394.8823644867931</v>
       </c>
       <c r="M44" t="n">
-        <v>615.4744219305607</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="N44" t="n">
-        <v>615.4744219305607</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="O44" t="n">
-        <v>152.3602336606542</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P44" t="n">
-        <v>29.30516179787622</v>
+        <v>29.3051617978762</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>137.2084060939011</v>
       </c>
       <c r="K45" t="n">
-        <v>139.5283656087595</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L45" t="n">
-        <v>544.972681409041</v>
+        <v>62.88023251454402</v>
       </c>
       <c r="M45" t="n">
-        <v>615.4744219305607</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N45" t="n">
-        <v>615.4744219305607</v>
+        <v>474.9869761414412</v>
       </c>
       <c r="O45" t="n">
-        <v>76.40281819326268</v>
+        <v>588.423833253011</v>
       </c>
       <c r="P45" t="n">
-        <v>45.45321322722221</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q45" t="n">
         <v>262.5157059175991</v>
@@ -38195,7 +38195,7 @@
         <v>145.5408763155897</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.57651184429755</v>
+        <v>18.57651184429753</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
